--- a/Data/LTS/[LTS]Tenants - 2850306027/[LTS]Tenants - 2850306027.xlsx
+++ b/Data/LTS/[LTS]Tenants - 2850306027/[LTS]Tenants - 2850306027.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SteamLibrary\steamapps\common\RimWorld\Mods\MOD KOREAN TRANSLATE\trans\[LTS]\[LTS]Tenants - 2850306027\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED4C254B-8A90-4C2C-B5E7-003A14D741BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5C08CF-44D3-4648-99A2-13A76B0AA8EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="2024-04-19_삭제된 노드 목록" sheetId="2" r:id="rId2"/>
     <sheet name="2024-04-21_삭제된 노드 목록" sheetId="3" r:id="rId3"/>
+    <sheet name="2024-05-14_삭제된 노드 목록" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -1409,7 +1410,6 @@
             <color rgb="FF000000"/>
             <rFont val="돋움"/>
             <family val="3"/>
-            <charset val="129"/>
           </rPr>
           <t>이전의</t>
         </r>
@@ -1421,6 +1421,120 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+          </rPr>
+          <t>원문</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>: 'questDescriptionBeforeAccepted-&gt;[questDescriptionRejected]A [tenantGender] [tenantPawn_age]-year-old [tenantGenes] named [tenantPawn_nameDef] hail from nearby. \n[tenantPawn_pronoun] wishes to rent a place to stay and is willing to pay [rent] silver per day every [days] days for a total of [rentSum]. \n\n[tenantPawn_nameDef] won't do any work! [questDescriptionViolenceEnabled] \nMistreating tenants and keeping them unhappay will make them leave and give you a bad reputation. A reputation that may have unforeseen effects... \n\n[questDescriptionRoomRequired]'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006B000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-21 이전의 원문: 'questDescriptionAfterAccepted-&gt;[questDescriptionRejected][tenantPawn_nameDef] is a tenant of your colony. \n\n[tenantPawn_pronoun] pays [rent] silver per day every [days] days for a total of [rentSum]. Couriers will occassionaly bring the accumulated rent to your noticeboard if you have one. \n\n[questDescriptionRoomRequired]'</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-05-14 이전의 원문: 'questDescriptionAfterAccepted-&gt;[questDescriptionRejected][tenantPawn_nameDef] is a tenant of your colony. \n\n[tenantPawn_pronoun] pays [rent] silver per day every [days] days for a total of [rentSum]. Couriers will occassionaly bring the accumulated rent to your noticeboard if you have one. \n\n[questDescriptionRoomRequired] \n\n[questDescriptionMayJoin]'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E139" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-21 이전의 원문: 'questDescriptionViolenceEnabled(violenceEnabled==true)-&gt;However, [tenantPawn_pronoun] can be drafted and fight if necessary.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-04-21 이전의 원문: 'questDescriptionViolenceEnabled(violenceEnabled==false)-&gt;[tenantPawn_pronoun] won't fight at all expecting you to protect [tenantPawn_objective] as well.'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E141" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006E000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2024-05-14 이전의 원문: 'A musket projectile
+            Base damage: 15
+            Stopping power: 1
+            Armor Penetration: 0.2
+            Speed: 80'
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E144" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006F000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2024-05-14 이전의 원문: 'A knife
+            Base damage: 12
+            Armor Penetration: 0.25
+            Speed: 60'
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E211" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000070000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2024-05-14</t>
         </r>
         <r>
           <rPr>
@@ -1430,55 +1544,92 @@
             <family val="3"/>
             <charset val="129"/>
           </rPr>
-          <t>원문</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>: 'questDescriptionBeforeAccepted-&gt;[questDescriptionRejected]A [tenantGender] [tenantPawn_age]-year-old [tenantGenes] named [tenantPawn_nameDef] hail from nearby. \n[tenantPawn_pronoun] wishes to rent a place to stay and is willing to pay [rent] silver per day every [days] days for a total of [rentSum]. \n\n[tenantPawn_nameDef] won't do any work! [questDescriptionViolenceEnabled] \nMistreating tenants and keeping them unhappay will make them leave and give you a bad reputation. A reputation that may have unforeseen effects... \n\n[questDescriptionRoomRequired]'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E134" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'questDescriptionAfterAccepted-&gt;[questDescriptionRejected][tenantPawn_nameDef] is a tenant of your colony. \n\n[tenantPawn_pronoun] pays [rent] silver per day every [days] days for a total of [rentSum]. Couriers will occassionaly bring the accumulated rent to your noticeboard if you have one. \n\n[questDescriptionRoomRequired]'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E139" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'questDescriptionViolenceEnabled(violenceEnabled==true)-&gt;However, [tenantPawn_pronoun] can be drafted and fight if necessary.'</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E140" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00006D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2024-04-21 이전의 원문: 'questDescriptionViolenceEnabled(violenceEnabled==false)-&gt;[tenantPawn_pronoun] won't fight at all expecting you to protect [tenantPawn_objective] as well.'</t>
+          <t>에</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새로</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>추가된</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>노드들</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (18</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -1487,7 +1638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="969">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="996">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -2892,9 +3043,6 @@
     <t>questName-&gt;Tenancy for [tenantPawn_nameDef]</t>
   </si>
   <si>
-    <t>QuestScriptDef+LTS_Tenancy.questNameRules.rulesStrings.1</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2907,13 +3055,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>QuestScriptDef+LTS_Tenancy.questNameRules.rulesStrings.1</t>
+  </si>
+  <si>
     <t>LTS_Tenancy.questNameRules.rulesStrings.1</t>
   </si>
   <si>
     <t>questName-&gt;[tenantPawn_nameDef] on vacation</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+LTS_Tenancy.questNameRules.rulesStrings.2</t>
   </si>
   <si>
     <r>
@@ -2928,13 +3076,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>QuestScriptDef+LTS_Tenancy.questNameRules.rulesStrings.2</t>
+  </si>
+  <si>
     <t>LTS_Tenancy.questNameRules.rulesStrings.2</t>
   </si>
   <si>
     <t>questName-&gt;A new home for [tenantPawn_nameDef]</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+LTS_Tenancy.questNameRules.rulesStrings.3</t>
   </si>
   <si>
     <r>
@@ -2949,13 +3097,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>QuestScriptDef+LTS_Tenancy.questNameRules.rulesStrings.3</t>
+  </si>
+  <si>
     <t>LTS_Tenancy.questNameRules.rulesStrings.3</t>
   </si>
   <si>
     <t>questName-&gt;[tenantPawn_nameDef] the tenant</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+LTS_Tenancy.questDescriptionRules.rulesStrings.0</t>
   </si>
   <si>
     <r>
@@ -2970,6 +3118,9 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
+    <t>QuestScriptDef+LTS_Tenancy.questDescriptionRules.rulesStrings.0</t>
+  </si>
+  <si>
     <t>LTS_Tenancy.questDescriptionRules.rulesStrings.0</t>
   </si>
   <si>
@@ -2982,70 +3133,1027 @@
     <t>LTS_Tenancy.questContentRules.rulesStrings.0</t>
   </si>
   <si>
-    <t>questDescriptionBeforeAccepted-&gt;[questDescriptionRejected] [tenant_age]살의 [tenantRace] [tenantGenes] [tenantGender]인 [tenant_nameDef](이)가 근처에 도착했습니다. \n[tenant_pronoun]는 숙소를 빌리고 싶어하며, 매 [days]일 간 [rent]은화씩, 총 [rentSum]은화를 지불하고자 합니다. \n\n[tenant_nameDef](은)는 어떤 일도 할 수 없습니다! 하지만 필요한 경우 [tenant_pronoun]를 소집해서 싸울 수 있습니다. \n불행한 세입자을 계속 방치하면 평판이 나빠집니다. \n\n[questDescriptionRoomRequired]</t>
+    <t>questDescriptionBeforeAccepted-&gt;[questDescriptionRejected]A [tenantGender] [tenantPawn_age]-year-old [tenantGenes] named [tenantPawn_nameDef] hail from nearby. \n[tenantPawn_pronoun] wishes to rent a place to stay and is willing to pay [rent] silver per day every [days] days for a total of [rentSum]. \n\n[tenantPawn_nameDef] won't do any work! [questDescriptionViolenceEnabled] \nMistreating tenants and keeping them unhappay will make them leave and give you a bad reputation. A reputation that may have unforeseen effects... \n\n[questDescriptionRoomRequired] \n\n[questDescriptionMayJoin]</t>
   </si>
   <si>
     <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.1</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>questDescriptionBeforeAccepted-&gt;[questDescriptionRejected] [tenant_age]살의 [tenantRace] [tenantGenes] [tenantGender]인 [tenant_nameDef](이)가 근처에 도착했습니다.\n[tenant_pronoun]는 숙소를 빌리고 싶어하며, 매 [days]일 간 [rent]은화씩, 총 [rentSum]은화를 지불하고자 합니다.\n\n[tenant_nameDef](은)는 어떤 일도 할 수 없습니다! 하지만 필요한 경우 [tenant_pronoun]를 소집해서 싸울 수 있습니다.\n불행한 세입자을 계속 방치하면 평판이 나빠집니다.\n\n[questDescriptionRoomRequired]\n\n[questDescriptionMayJoin]</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
     <t>LTS_Tenancy.questContentRules.rulesStrings.1</t>
   </si>
   <si>
+    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.2</t>
+  </si>
+  <si>
+    <t>A musket projectile
+            Base damage: 15
+            Stopping power: 1
+            Armor Penetration: 0.2
+            Speed: 80</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>questDescriptionAfterAccepted-&gt;[questDescriptionRejected][tenant_nameDef](은)는 이제 당신 정착지의 세입자 입니다.\n\n[tenant_pronoun]는 매 [days]일 간 [rent]은화씩, 총 [rentSum]은화를 지불할 것입니다.게시판이 있을 경우, 배달부가 가끔씩 누적된 임대료를 게시판으로 가져다 줍니다.\n\n[questDescriptionRoomRequired]\n\n[questDescriptionMayJoin]</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS_Tenancy.questContentRules.rulesStrings.2</t>
+  </si>
+  <si>
+    <t>questDescriptionRejected(rejected==true)-&gt;[tenantPawn_nameDef] decided against coming to your colony.\n\n</t>
+  </si>
+  <si>
+    <t>questDescriptionRejected(tenancyRejected==true)-&gt;[tenant_nameDef](이)가 정착지에 오지 않기로 결정했습니다.\n\n</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.3</t>
+  </si>
+  <si>
+    <t>LTS_Tenancy.questContentRules.rulesStrings.3</t>
+  </si>
+  <si>
+    <t>questDescriptionRejected(rejected==false)-&gt;</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.4</t>
+  </si>
+  <si>
+    <t>LTS_Tenancy.questContentRules.rulesStrings.4</t>
+  </si>
+  <si>
+    <t>questDescriptionRoomRequired(roomRequired==true)-&gt;[tenantPawn_nameDef] wants a single room and offers to pay extra for it.</t>
+  </si>
+  <si>
+    <t>questDescriptionRoomRequired(singleRoomRequired==true)-&gt;[tenant_nameDef](은)는 개인 침실을 원하며 추가 비용을 지불할 것입니다.</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.5</t>
+  </si>
+  <si>
+    <t>LTS_Tenancy.questContentRules.rulesStrings.5</t>
+  </si>
+  <si>
+    <t>questDescriptionRoomRequired(roomRequired==false)-&gt;</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.6</t>
+  </si>
+  <si>
+    <t>LTS_Tenancy.questContentRules.rulesStrings.6</t>
+  </si>
+  <si>
     <t>questDescriptionMayJoin(mayJoin==true)-&gt;</t>
   </si>
   <si>
-    <t>questDescriptionAfterAccepted-&gt;[questDescriptionRejected][tenant_nameDef](은)는 이제 당신 정착지의 세입자 입니다. \n\n[tenant_pronoun]는 매 [days]일 간 [rent]은화씩, 총 [rentSum]은화를 지불할 것입니다.게시판이 있을 경우, 배달부가 가끔씩 누적된 임대료를 게시판으로 가져다 줍니다. \n\n[questDescriptionRoomRequired]</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.2</t>
-  </si>
-  <si>
-    <t>LTS_Tenancy.questContentRules.rulesStrings.2</t>
-  </si>
-  <si>
-    <t>questDescriptionRejected(rejected==true)-&gt;[tenantPawn_nameDef] decided against coming to your colony.\n\n</t>
-  </si>
-  <si>
-    <t>questDescriptionRejected(tenancyRejected==true)-&gt;[tenant_nameDef](이)가 정착지에 오지 않기로 결정했습니다.\n\n</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.3</t>
-  </si>
-  <si>
-    <t>LTS_Tenancy.questContentRules.rulesStrings.3</t>
-  </si>
-  <si>
-    <t>questDescriptionRejected(rejected==false)-&gt;</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.4</t>
-  </si>
-  <si>
-    <t>LTS_Tenancy.questContentRules.rulesStrings.4</t>
-  </si>
-  <si>
-    <t>questDescriptionRoomRequired(roomRequired==true)-&gt;[tenantPawn_nameDef] wants a single room and offers to pay extra for it.</t>
-  </si>
-  <si>
-    <t>questDescriptionRoomRequired(singleRoomRequired==true)-&gt;[tenant_nameDef](은)는 개인 침실을 원하며 추가 비용을 지불할 것입니다.</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.5</t>
-  </si>
-  <si>
-    <t>LTS_Tenancy.questContentRules.rulesStrings.5</t>
-  </si>
-  <si>
-    <t>questDescriptionRoomRequired(roomRequired==false)-&gt;</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.6</t>
-  </si>
-  <si>
-    <t>LTS_Tenancy.questContentRules.rulesStrings.6</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>questDescriptionMayJoin(mayJoin==true)-&gt;</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
     <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.7</t>
+  </si>
+  <si>
+    <t>LTS_Tenancy.questContentRules.rulesStrings.7</t>
+  </si>
+  <si>
+    <t>ThingDef+LTS_MusketProjectile.description</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>questDescriptionMayJoin(mayJoin==false)-&gt;[tenantPawn_nameDef] does not want to join your faction ever.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>questDescriptionMayJoin(mayJoin==false)-&gt;[tenantPawn_nameDef](은)는 진영에 가입하고 싶지 않습니다.</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTS_MusketProjectile.description</t>
+  </si>
+  <si>
+    <t>A knife
+            Base damage: 12
+            Armor Penetration: 0.25
+            Speed: 60</t>
+  </si>
+  <si>
+    <t>머스킷 탄환\n            기본 피해량: 15\n            저지력: 1\n            방어구 관통력: 0.2\n            속도: 80</t>
+  </si>
+  <si>
+    <t>ThingDef+LTS_SilverMusketProjectile.description</t>
+  </si>
+  <si>
+    <t>LTS_SilverMusketProjectile.description</t>
+  </si>
+  <si>
+    <t>A silvery musket projectile
+            Base damage: 16
+            Stopping power: 1
+            Armor Penetration: 0.3
+            Speed: 80</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>머스킷 은 탄환\n            기본 피해량: 16\n            저지력: 1\n            방어구 관통력: 0.3\n            속도: 80</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>ThingDef+LTS_PressurizedProjectile.description</t>
+  </si>
+  <si>
+    <t>LTS_PressurizedProjectile.description</t>
+  </si>
+  <si>
+    <t>A small ball projectile
+            Base damage: 15
+            Stopping power: 1
+            Armor Penetration: 0.2
+            Speed: 100</t>
+  </si>
+  <si>
+    <t>작은 탄환\n            기본 피해량: 15\n            저지력: 1\n            방어구 관통력: 0.2\n            속도: 100</t>
+  </si>
+  <si>
+    <t>ThingDef+LTS_ThrowingKnifeProjectile.description</t>
+  </si>
+  <si>
+    <t>LTS_ThrowingKnifeProjectile.description</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancySetup.TenantArrivedLabel.slateRef</t>
+  </si>
+  <si>
+    <t>칼\n            기본 피해량: 12\n            방어구 관통력: 0.25\n            속도: 60</t>
+  </si>
+  <si>
+    <t>ThingDef+LTS_ThrowingKnife.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>LTS_ThrowingKnife.verbs.Verb_Shoot.label</t>
+  </si>
+  <si>
+    <t>throw knife</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierDenied</t>
+  </si>
+  <si>
+    <t>Keyed</t>
+  </si>
+  <si>
+    <t>LTSCourierDenied</t>
+  </si>
+  <si>
+    <t>No courier!</t>
+  </si>
+  <si>
+    <t>배달부 없음!</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierDeniedMessage</t>
+  </si>
+  <si>
+    <t>LTSCourierDeniedMessage</t>
+  </si>
+  <si>
+    <t>You have been denied a courier due to previous unfortunate incidents.</t>
+  </si>
+  <si>
+    <t>이전에 발생한 불행한 사건으로 인해 배달부가 배달을 거부했습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierArrival</t>
+  </si>
+  <si>
+    <t>LTSCourierArrival</t>
+  </si>
+  <si>
+    <t>Courier</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierArrivalMessage</t>
+  </si>
+  <si>
+    <t>LTSCourierArrivalMessage</t>
+  </si>
+  <si>
+    <t>A courier named {PAWN_nameDef} has arrived. {PAWN_pronoun} will deliver rent and perhaps other things too! Do try to keep {PAWN_objective} alive.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(이)라는 배달부가 도착했습니다. {PAWN_pronoun}는 집세 및 기타 다른 것들을 배달해 줍니다! {PAWN_objective} 살리도록 노력하세요.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierDelivered</t>
+  </si>
+  <si>
+    <t>LTSCourierDelivered</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} has concluded {PAWN_possessive} delivery and will soon leave.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}은(는) {PAWN_possessive} 배달을 완료했습니다. 곧 떠날 예정입니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierDeliveredRent</t>
+  </si>
+  <si>
+    <t>LTSCourierDeliveredRent</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} delivered a grand total of {0} silver from tenants.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}이(가) 세입자들로부터 받은 임대료 총 {0}은화를 배달 해주었습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierDeliveredRentGold</t>
+  </si>
+  <si>
+    <t>LTSCourierDeliveredRentGold</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} delivered a grand total of {0} silver and {1} gold from tenants.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}이(가) 세입자들로부터 받은 임대료 총 {0}은화와 {1}금화를 배달 해주었습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierDeliveredGift</t>
+  </si>
+  <si>
+    <t>LTSCourierDeliveredGift</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} delivered a gift from a previous happy tenant! How nice!</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}이(가) 행복했었던 이전 세입자로부터 받은 선물을 배달 해주었습니다! 정말 멋지네요!</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierDeliveredTech</t>
+  </si>
+  <si>
+    <t>LTSCourierDeliveredTech</t>
+  </si>
+  <si>
+    <t>The Courier Association is pleased with your work and decided to gift you a hint of their technology.</t>
+  </si>
+  <si>
+    <t>배달부 협회는 귀하의 노고에 만족하여 기술에 대한 힌트를 선물하기로 결정했습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierTenancyNotice</t>
+  </si>
+  <si>
+    <t>LTSCourierTenancyNotice</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} noticed your note for tenancy and posted a possible applicant.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(이)가임대에 대한 귀하의 공지를 발견하고 가능한 지원자를 게시했습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierTenancyNoticeFailFunds</t>
+  </si>
+  <si>
+    <t>LTSCourierTenancyNoticeFailFunds</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} noticed some issue with your advertisement and leaves it as is urging you to correct this issue.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}(이)가 귀하의 광고에서 일부 문제를 발견하여 이 문제를 수정할 것을 촉구하며 그대로 남겨 둡니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSLoneCourierDied</t>
+  </si>
+  <si>
+    <t>LTSLoneCourierDied</t>
+  </si>
+  <si>
+    <t>A courier {PAWN_nameDef} died while in the area. You are blamed for this incident.</t>
+  </si>
+  <si>
+    <t>배달원 {PAWN_nameDef}(이)가 이 지역에 있는 동안 사망했습니다. 이 사건에 대한 책임은 귀하에게 있습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementPlaced</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementPlaced</t>
+  </si>
+  <si>
+    <t>Advertisement is put up, now to wait for a courier to pick it up.</t>
+  </si>
+  <si>
+    <t>광고가 게시되었으니 이제 배달부가 찾아올 때까지 기다려야 합니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementFailed</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementFailed</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} somehow failed {PAWN_possessive} task of placing an advertisement. not enough silver.</t>
+  </si>
+  <si>
+    <t>은화가 부족합니다. {PAWN_nameDef}은(는) 광고 게시를 실패했습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementGizmo</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementGizmo</t>
+  </si>
+  <si>
+    <t>Place Advert</t>
+  </si>
+  <si>
+    <t>광고 게시</t>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementGizmoDesc</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementGizmoDesc</t>
+  </si>
+  <si>
+    <t>If toggled on, a pawn will make sure you have an advert up at all times as long as you can afford it.</t>
+  </si>
+  <si>
+    <t>이 기능을 켜면 광고비를 지불할 수 있는 한 폰이 항상 광고를 게시합니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementFemaleGizmo</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementFemaleGizmo</t>
+  </si>
+  <si>
+    <t>Female applicants</t>
+  </si>
+  <si>
+    <t>여성 지원자</t>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementMaleGizmo</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementMaleGizmo</t>
+  </si>
+  <si>
+    <t>Male applicants</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>남성 지원자</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementGenderGizmo</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementGenderGizmo</t>
+  </si>
+  <si>
+    <t>Any Gender</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아무 성별</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementAgeGizmo</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementAgeGizmo</t>
+  </si>
+  <si>
+    <t>Max age: {0}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>최대 나이: {0}</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementAnyAgeGizmo</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementAnyAgeGizmo</t>
+  </si>
+  <si>
+    <t>Any Age</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아무 나이</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementSingleRoomGizmo</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementSingleRoomGizmo</t>
+  </si>
+  <si>
+    <t>Single room</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>개인 방</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementSingleRoomGizmoDesc</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementSingleRoomGizmoDesc</t>
+  </si>
+  <si>
+    <t>A pawn will require a single room but pays extra for it. Failure to provide a single room will cause frustration for the tenant.</t>
+  </si>
+  <si>
+    <t>폰은 개인 침실이 필요하지만 추가 비용을 지불해야 합니다. 싱개인 침실을 제공하지 않으면 임차인이 불편을 겪을 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementFightableGizmo</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementFightableGizmo</t>
+  </si>
+  <si>
+    <t>Fighter</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>싸움</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementFightableGizmoDesc</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementFightableGizmoDesc</t>
+  </si>
+  <si>
+    <t>Whether they can fight(✓) or not(X). Does not take account for pawn traits or other means of disabling violence.</t>
+  </si>
+  <si>
+    <t>전투 가능 여부(✓) 또는 불가능 여부(X). 폰 특성이나 기타 폭력성을 비활성화하는 수단은 고려하지 않습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementXenosAnyGizmo</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementXenosAnyGizmo</t>
+  </si>
+  <si>
+    <t>Any Xeno</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>아무 이종형</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementCost</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementCost</t>
+  </si>
+  <si>
+    <t>Advertisement cost:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>광고 비용:</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertisementCostDesc</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementCostDesc</t>
+  </si>
+  <si>
+    <t>How much silver it costs to put up an advert for tenancy which forces the event upon courier retrieval.</t>
+  </si>
+  <si>
+    <t>배달부가 가져갈 임대차 광고를 게시하는 데 드는 비용입니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSExpectedRent</t>
+  </si>
+  <si>
+    <t>LTSExpectedRent</t>
+  </si>
+  <si>
+    <t>New applicants daily rent of: {0} silver</t>
+  </si>
+  <si>
+    <t>신규 신청자 일일 임대료: {0} 은</t>
+  </si>
+  <si>
+    <t>Keyed+LTSContractText</t>
+  </si>
+  <si>
+    <t>LTSContractText</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} would love to prolong {PAWN_possessive} stay. Would you accept the same contract of {0} silver per day for {1} days?</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}은(는) {PAWN_possessive}의 숙박을 연장하고 싶어 합니다. 매 {1}일간 {0}은화씩 동일한 계약으로 연장하겠습니까?</t>
+  </si>
+  <si>
+    <t>Keyed+LTSContractJoin</t>
+  </si>
+  <si>
+    <t>LTSContractJoin</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{PAWN_nameDef} seems to love {PAWN_possessive} stay and wishes to become a full fledged member of your colony. Do you accept? \n\nReject now and {PAWN_pronoun} wont ask again! (At least, until next reload.) \n\n{PAWN_gender} {PAWN_race}, age {PAWN_ageFull}  </t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+      </rPr>
+      <t>{PAWN_nameDef}은(는) 이곳에서 머무는걸 좋아해서 정착지의 정식 구성원이 되고 싶어합니다. 수락하시겠습니까? \n\n거부하면 {PAWN_pronoun}는 다시 묻지 않을 것입니다!\n\n{PAWN_gender} {PAWN_race}, {PAWN_ageFull}살</t>
+    </r>
+    <phoneticPr fontId="0" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keyed+LTSContractJoinReject</t>
+  </si>
+  <si>
+    <t>LTSContractJoinReject</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} is saddened but does not pry further.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}은(는) 슬퍼하지만 더 이상 묻지 않습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSContractJoinAccept</t>
+  </si>
+  <si>
+    <t>LTSContractJoinAccept</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef} is very happy and vows that {PAWN_pronoun} will not make you regret your decision.</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}은(는) 매우 기쁘게 생각하며 {PAWN_pronoun}가 당신의 결정을 후회하게 만들지 않겠다고 맹세합니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSContractTitle</t>
+  </si>
+  <si>
+    <t>LTSContractTitle</t>
+  </si>
+  <si>
+    <t>Tenancy</t>
+  </si>
+  <si>
+    <t>임대차 계약</t>
+  </si>
+  <si>
+    <t>Keyed+LTSContractAgree</t>
+  </si>
+  <si>
+    <t>LTSContractAgree</t>
+  </si>
+  <si>
+    <t>Accept tenant</t>
+  </si>
+  <si>
+    <t>임대 수락</t>
+  </si>
+  <si>
+    <t>Keyed+LTSContractReject</t>
+  </si>
+  <si>
+    <t>LTSContractReject</t>
+  </si>
+  <si>
+    <t>Reject tenant</t>
+  </si>
+  <si>
+    <t>임대 거절</t>
+  </si>
+  <si>
+    <t>Keyed+LTSContractPostpone</t>
+  </si>
+  <si>
+    <t>LTSContractPostpone</t>
+  </si>
+  <si>
+    <t>Ask me later</t>
+  </si>
+  <si>
+    <t>나중에 다시 확인</t>
+  </si>
+  <si>
+    <t>Keyed+LTSMoodBelowThreshold</t>
+  </si>
+  <si>
+    <t>LTSMoodBelowThreshold</t>
+  </si>
+  <si>
+    <t>Tenants unhappy</t>
+  </si>
+  <si>
+    <t>세입자가 불행합니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSMoodBelowThresholdDesc</t>
+  </si>
+  <si>
+    <t>LTSMoodBelowThresholdDesc</t>
+  </si>
+  <si>
+    <t>Your tenant {PAWN_nameDef} is unhappy. Try to make {PAWN_objective} feel better or {PAWN_pronoun}'ll leave.</t>
+  </si>
+  <si>
+    <t>당신의 세입자인 {PAWN_nameDef}이(가) 불행합니다. {PAWN_pronoun}의 기분을 좋게 만들지 않으면 {PAWN_pronoun}는 떠날 것입니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSTenantPassionMinor</t>
+  </si>
+  <si>
+    <t>LTSTenantPassionMinor</t>
+  </si>
+  <si>
+    <t>Is interested in</t>
+  </si>
+  <si>
+    <t>는 관심있는</t>
+  </si>
+  <si>
+    <t>Keyed+LTSTenantPassionMajor</t>
+  </si>
+  <si>
+    <t>LTSTenantPassionMajor</t>
+  </si>
+  <si>
+    <t>Loves</t>
+  </si>
+  <si>
+    <t>좋아하는</t>
+  </si>
+  <si>
+    <t>Keyed+LTSTenancyRoomRequired</t>
+  </si>
+  <si>
+    <t>LTSTenancyRoomRequired</t>
+  </si>
+  <si>
+    <t>Rooms</t>
+  </si>
+  <si>
+    <t>방</t>
+  </si>
+  <si>
+    <t>Keyed+LTSTenancyRoomRequiredDesc</t>
+  </si>
+  <si>
+    <t>LTSTenancyRoomRequiredDesc</t>
+  </si>
+  <si>
+    <t>A tenant pays for a single room but does not have one! You might earn their ire should this not be fixed soon.</t>
+  </si>
+  <si>
+    <t>세입자가 개인 침실 요금을 지불했는데 방이 없습니다! 이 문제를 빨리 해결하지 않으면 세입자의 분노를 살 수 있습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSLoneTenantDied</t>
+  </si>
+  <si>
+    <t>LTSLoneTenantDied</t>
+  </si>
+  <si>
+    <t>The tenant {PAWN_nameDef} died while leaving the area. You are blamed for this incident.</t>
+  </si>
+  <si>
+    <t>세입자 {PAWN_nameDef}(이)가 이 지역을 떠나던 중 사망했습니다. 이 사건에 대한 책임은 귀하에게 있습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierDaysSpawn</t>
+  </si>
+  <si>
+    <t>LTSCourierDaysSpawn</t>
+  </si>
+  <si>
+    <t>Forced courier event: {0}-{1} days</t>
+  </si>
+  <si>
+    <t>강제 배달부 이벤트 사이 딜레이 : {0} - {1}일</t>
+  </si>
+  <si>
+    <t>Keyed+LTSCourierDaysSpawnDesc</t>
+  </si>
+  <si>
+    <t>LTSCourierDaysSpawnDesc</t>
+  </si>
+  <si>
+    <t>The minimum time between courier events. Note: You still require a noticeboard.</t>
+  </si>
+  <si>
+    <t>배달부 이벤트 사이의 최소 시간은 이 두 값 사이에서 무작위로 정해집니다. 여전히 게시판은 필요합니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSTenancyDaysContract</t>
+  </si>
+  <si>
+    <t>LTSTenancyDaysContract</t>
+  </si>
+  <si>
+    <t>Tenancy contract: {0}-{1} days</t>
+  </si>
+  <si>
+    <t>임대 계약 기간 : {0} - {1}일</t>
+  </si>
+  <si>
+    <t>Keyed+LTSTenancyRentContract</t>
+  </si>
+  <si>
+    <t>LTSTenancyRentContract</t>
+  </si>
+  <si>
+    <t>Daily rent of:</t>
+  </si>
+  <si>
+    <t>일일 임대료:</t>
+  </si>
+  <si>
+    <t>Keyed+LTSTenancyRentContractDesc</t>
+  </si>
+  <si>
+    <t>LTSTenancyRentContractDesc</t>
+  </si>
+  <si>
+    <t>How much silver is paid per contract day.</t>
+  </si>
+  <si>
+    <t>계약일당 지급되는 은의 양입니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSMoodTicks</t>
+  </si>
+  <si>
+    <t>LTSMoodTicks</t>
+  </si>
+  <si>
+    <t>Mood ticks:</t>
+  </si>
+  <si>
+    <t>무드 틱: {0}</t>
+  </si>
+  <si>
+    <t>Keyed+LTSMoodTicksDesc</t>
+  </si>
+  <si>
+    <t>LTSMoodTicksDesc</t>
+  </si>
+  <si>
+    <t>Amount of required ticks to trigger a mood related event for tenants.</t>
+  </si>
+  <si>
+    <t>세입자에게 기분 관련 이벤트를 트리거하는 데 필요한 틱 수입니다.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSKillPenalty</t>
+  </si>
+  <si>
+    <t>LTSKillPenalty</t>
+  </si>
+  <si>
+    <t>Kill penalty</t>
+  </si>
+  <si>
+    <t>살해 페널티</t>
+  </si>
+  <si>
+    <t>Keyed+LTSKillPenaltyDesc</t>
+  </si>
+  <si>
+    <t>LTSKillPenaltyDesc</t>
+  </si>
+  <si>
+    <t>Whether killing tenants and couriers have other consequenses.</t>
+  </si>
+  <si>
+    <t>세입자와 배달원을 살해하면 다른 결과가 발생하는지 여부</t>
+  </si>
+  <si>
+    <t>Keyed+LTSGoldPayment</t>
+  </si>
+  <si>
+    <t>LTSGoldPayment</t>
+  </si>
+  <si>
+    <t>Partial payment in gold?</t>
+  </si>
+  <si>
+    <t>금으로 부분 결제 하는 걸 허용 할까요?</t>
+  </si>
+  <si>
+    <t>Keyed+LTSGoldPaymentDesc</t>
+  </si>
+  <si>
+    <t>LTSGoldPaymentDesc</t>
+  </si>
+  <si>
+    <t>Couriers deliver mix of silver and gold upon delivery if accumulated rent is over 500 silver. A random amount up to 20% can be converted to gold. Conversion rate: 1 gold = 10 silver.</t>
+  </si>
+  <si>
+    <t>누적 임대료가 500실버를 초과하는 경우 배달부는 배송 시 은과 금을 혼합하여 배달합니다. 최대 20%까지 무작위 금액을 골드로 전환합니다. 전환율: 1금 = 10은.</t>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertNoticeSound</t>
+  </si>
+  <si>
+    <t>LTSAdvertNoticeSound</t>
+  </si>
+  <si>
+    <t>Advert message</t>
+  </si>
+  <si>
+    <t>광고 메세지</t>
+  </si>
+  <si>
+    <t>Keyed+LTSAdvertNoticeSoundDesc</t>
+  </si>
+  <si>
+    <t>LTSAdvertNoticeSoundDesc</t>
+  </si>
+  <si>
+    <t>Whether a beep and a message should be played whenever a pawn set ups a notice or any other tenancy related events.</t>
+  </si>
+  <si>
+    <t>폰이 공지나 기타 임대 관련 이벤트를 설정할 때마다 신호음과 메시지를 재생할지 여부를 설정합니다.</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.PawnsArrive.customLetterLabel.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.root.nodes.IsTrue.elseNode.nodes.PawnsArrive.customLetterLabel.slateRef</t>
+  </si>
+  <si>
+    <t>세입자 도착</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.PawnsArrive.customLetterText.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.root.nodes.IsTrue.elseNode.nodes.PawnsArrive.customLetterText.slateRef</t>
+  </si>
+  <si>
+    <t>임대 계약을 한 [tenant_nameDef](이)가 도착했습니다.</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.root.nodes.IsTrue.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.root.nodes.IsTrue.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.8</t>
+  </si>
+  <si>
+    <t>LTS_Tenancy.questContentRules.rulesStrings.8</t>
+  </si>
+  <si>
+    <t>questDescriptionViolenceEnabled(violenceEnabled==true)-&gt;However, [tenantPawn_pronoun] can be drafted and fight if necessary.</t>
   </si>
   <si>
     <r>
@@ -3060,10 +4168,13 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>LTS_Tenancy.questContentRules.rulesStrings.7</t>
-  </si>
-  <si>
-    <t>ThingDef+LTS_MusketProjectile.description</t>
+    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.9</t>
+  </si>
+  <si>
+    <t>LTS_Tenancy.questContentRules.rulesStrings.9</t>
+  </si>
+  <si>
+    <t>questDescriptionViolenceEnabled(violenceEnabled==false)-&gt;[tenantPawn_pronoun] won't fight at all expecting you to protect [tenantPawn_objective] as well.</t>
   </si>
   <si>
     <r>
@@ -3078,10 +4189,16 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>LTS_MusketProjectile.description</t>
-  </si>
-  <si>
-    <t>머스킷 탄환\n            기본 피해량: 15\n            저지력: 1\n            방어구 관통력: 0.2\n            속도: 80</t>
+    <t>Keyed+LTSAdvertisementMayJoinGizmo</t>
+  </si>
+  <si>
+    <t>LTSAdvertisementMayJoinGizmo</t>
+  </si>
+  <si>
+    <t>May join</t>
+  </si>
+  <si>
+    <t>TenancyTimer.TenantContractLabel.slateRef</t>
   </si>
   <si>
     <r>
@@ -3091,1520 +4208,667 @@
         <rFont val="맑은 고딕"/>
         <family val="2"/>
       </rPr>
-      <t>A musket projectile
-            Base damage: 15
-            Stopping power: 1
-            Armor Penetration: 0.2
-            Speed: 80</t>
+      <t>합류 가능</t>
     </r>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>ThingDef+LTS_SilverMusketProjectile.description</t>
-  </si>
-  <si>
-    <t>LTS_SilverMusketProjectile.description</t>
-  </si>
-  <si>
-    <t>A silvery musket projectile
-            Base damage: 16
-            Stopping power: 1
-            Armor Penetration: 0.3
-            Speed: 80</t>
-  </si>
-  <si>
-    <t>ThingDef+LTS_PressurizedProjectile.description</t>
+    <t>TenancyTimer.TenantContractText.slateRef</t>
+  </si>
+  <si>
+    <t>Keyed+AdvertNoticeSoundDesc</t>
+  </si>
+  <si>
+    <t>AdvertNoticeSoundDesc</t>
+  </si>
+  <si>
+    <t>폰의 알림이 있을 때마다 신호음과 메시지를 재생할지 여부를 설정합니다.</t>
+  </si>
+  <si>
+    <t>Keyed+AdvertNoticeSound</t>
+  </si>
+  <si>
+    <t>AdvertNoticeSound</t>
+  </si>
+  <si>
+    <t>Keyed+TenantsStoredDesc</t>
+  </si>
+  <si>
+    <t>TenantsStoredDesc</t>
+  </si>
+  <si>
+    <t>세입자 관련 퀘스트에 사용하기 위해 백그라운드에 저장되는 세입자의 양입니다. 숫자가 높을수록 성능에 영향을 줍니다. 참고: 현재 계약된 세입자는 계산되지 않으며 죽은 세입자는 정리됩니다.</t>
+  </si>
+  <si>
+    <t>Keyed+TenantsStored</t>
+  </si>
+  <si>
+    <t>TenantsStored</t>
+  </si>
+  <si>
+    <t>저장된 월드 세입자: {0}.</t>
+  </si>
+  <si>
+    <t>Keyed+GoldPaymentDesc</t>
+  </si>
+  <si>
+    <t>GoldPaymentDesc</t>
+  </si>
+  <si>
+    <t>배달부가 임대료를 배달할 때 은과 금을 섞어서 배달합니다(0~20%). 1금 = 10은화</t>
+  </si>
+  <si>
+    <t>Keyed+GoldPayment</t>
+  </si>
+  <si>
+    <t>GoldPayment</t>
+  </si>
+  <si>
+    <t>Keyed+KillPenaltyDesc</t>
+  </si>
+  <si>
+    <t>KillPenaltyDesc</t>
+  </si>
+  <si>
+    <t>Keyed+KillPenalty</t>
+  </si>
+  <si>
+    <t>KillPenalty</t>
+  </si>
+  <si>
+    <t>Keyed+TenancyRentContract</t>
+  </si>
+  <si>
+    <t>TenancyRentContract</t>
+  </si>
+  <si>
+    <t>기본 일일 임대료 : {0}은화</t>
+  </si>
+  <si>
+    <t>Keyed+TenancyDaysContract</t>
+  </si>
+  <si>
+    <t>TenancyDaysContract</t>
+  </si>
+  <si>
+    <t>Keyed+AdvertisementCostDesc</t>
+  </si>
+  <si>
+    <t>AdvertisementCostDesc</t>
+  </si>
+  <si>
+    <t>Keyed+AdvertisementCost</t>
+  </si>
+  <si>
+    <t>AdvertisementCost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고 비용: {0} </t>
+  </si>
+  <si>
+    <t>Keyed+MoodTicksDesc</t>
+  </si>
+  <si>
+    <t>MoodTicksDesc</t>
+  </si>
+  <si>
+    <t>세입자 무드 이벤트가 시작될 때까지의 틱 수입니다.</t>
+  </si>
+  <si>
+    <t>Keyed+MoodTicks</t>
+  </si>
+  <si>
+    <t>MoodTicks</t>
+  </si>
+  <si>
+    <t>Keyed+DefaultSettings</t>
+  </si>
+  <si>
+    <t>DefaultSettings</t>
+  </si>
+  <si>
+    <t>기본 설정</t>
+  </si>
+  <si>
+    <t>Keyed+CourierDaysSpawnDesc</t>
+  </si>
+  <si>
+    <t>CourierDaysSpawnDesc</t>
+  </si>
+  <si>
+    <t>Keyed+CourierDaysSpawn</t>
+  </si>
+  <si>
+    <t>CourierDaysSpawn</t>
+  </si>
+  <si>
+    <t>Keyed+Filter</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>종족 필터:</t>
+  </si>
+  <si>
+    <t>Keyed+Races</t>
+  </si>
+  <si>
+    <t>Races</t>
+  </si>
+  <si>
+    <t>허가된 세입자 종족</t>
+  </si>
+  <si>
+    <t>Keyed+TenancyRoomRequiredDesc</t>
+  </si>
+  <si>
+    <t>TenancyRoomRequiredDesc</t>
+  </si>
+  <si>
+    <t>Keyed+TenancyRoomRequired</t>
+  </si>
+  <si>
+    <t>TenancyRoomRequired</t>
+  </si>
+  <si>
+    <t>Keyed+TenantPassionMajor</t>
+  </si>
+  <si>
+    <t>TenantPassionMajor</t>
+  </si>
+  <si>
+    <t>Keyed+TenantPassionMinor</t>
+  </si>
+  <si>
+    <t>TenantPassionMinor</t>
+  </si>
+  <si>
+    <t>Keyed+MoodBelowThresholdDesc</t>
+  </si>
+  <si>
+    <t>MoodBelowThresholdDesc</t>
+  </si>
+  <si>
+    <t>Keyed+MoodBelowThreshold</t>
+  </si>
+  <si>
+    <t>MoodBelowThreshold</t>
+  </si>
+  <si>
+    <t>Keyed+ContractPostpone</t>
+  </si>
+  <si>
+    <t>ContractPostpone</t>
+  </si>
+  <si>
+    <t>Keyed+ContractReject</t>
+  </si>
+  <si>
+    <t>ContractReject</t>
+  </si>
+  <si>
+    <t>Keyed+ContractAgree</t>
+  </si>
+  <si>
+    <t>ContractAgree</t>
+  </si>
+  <si>
+    <t>Keyed+ContractTitle</t>
+  </si>
+  <si>
+    <t>ContractTitle</t>
+  </si>
+  <si>
+    <t>Keyed+ContractJoinAccept</t>
+  </si>
+  <si>
+    <t>ContractJoinAccept</t>
+  </si>
+  <si>
+    <t>Keyed+ContractJoinReject</t>
+  </si>
+  <si>
+    <t>ContractJoinReject</t>
+  </si>
+  <si>
+    <t>Keyed+ContractJoin</t>
+  </si>
+  <si>
+    <t>ContractJoin</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}은(는) 이곳에서 머무는걸 좋아해서 정착지의 정식 구성원이 되고 싶어합니다. 수락하시겠습니까? \n\n거부하면 {PAWN_pronoun}는 다시 묻지 않을 것입니다!</t>
+  </si>
+  <si>
+    <t>Keyed+ContractText</t>
+  </si>
+  <si>
+    <t>ContractText</t>
+  </si>
+  <si>
+    <t>Keyed+TenancyDeniedMessage</t>
+  </si>
+  <si>
+    <t>TenancyDeniedMessage</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}은(는) 당신이 지난 세입자들에게 한 일 때문에 당신의 정착지에서 살지 않기로 했습니다.</t>
+  </si>
+  <si>
+    <t>Keyed+TenancyDenied</t>
+  </si>
+  <si>
+    <t>TenancyDenied</t>
+  </si>
+  <si>
+    <t>세입자 없음!</t>
+  </si>
+  <si>
+    <t>Keyed+AdvertisementGizmoDesc</t>
+  </si>
+  <si>
+    <t>AdvertisementGizmoDesc</t>
+  </si>
+  <si>
+    <t>Keyed+AdvertisementGizmo</t>
+  </si>
+  <si>
+    <t>AdvertisementGizmo</t>
+  </si>
+  <si>
+    <t>Keyed+AdvertisementFailed</t>
+  </si>
+  <si>
+    <t>AdvertisementFailed</t>
+  </si>
+  <si>
+    <t>Keyed+AdvertisementPlaced</t>
+  </si>
+  <si>
+    <t>AdvertisementPlaced</t>
+  </si>
+  <si>
+    <t>Keyed+AddNoticeForTenancy</t>
+  </si>
+  <si>
+    <t>AddNoticeForTenancy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">임대에 대한 공지 추가: 가격 - {0}은화 </t>
+  </si>
+  <si>
+    <t>Keyed+CourierTenancyNoticeFail</t>
+  </si>
+  <si>
+    <t>CourierTenancyNoticeFail</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}이(가) 임대에 관한 당신의 광고를 봤지만 이전 광고를 아직 돌리는 중입니다. {PAWN_pronoun}는 일단 광고를 그대로 두기로 합니다.</t>
+  </si>
+  <si>
+    <t>Keyed+CourierTenancyNotice</t>
+  </si>
+  <si>
+    <t>CourierTenancyNotice</t>
+  </si>
+  <si>
+    <t>{PAWN_nameDef}이(가) 임대에 대한 당신의 광고를 봤습니다.{PAWN_nameDef}은(는) 관심있는 세입자를 데리고 올 것입니다. 그렇지만 모든 사람이 방문한다는 보장은 없습니다...</t>
+  </si>
+  <si>
+    <t>Keyed+CourierDeliveredTech</t>
+  </si>
+  <si>
+    <t>CourierDeliveredTech</t>
+  </si>
+  <si>
+    <t>Keyed+CourierDeliveredGift</t>
+  </si>
+  <si>
+    <t>CourierDeliveredGift</t>
+  </si>
+  <si>
+    <t>Keyed+CourierDeliveredRentGold</t>
+  </si>
+  <si>
+    <t>CourierDeliveredRentGold</t>
+  </si>
+  <si>
+    <t>Keyed+CourierDeliveredRent</t>
+  </si>
+  <si>
+    <t>CourierDeliveredRent</t>
+  </si>
+  <si>
+    <t>Keyed+CourierDelivered</t>
+  </si>
+  <si>
+    <t>CourierDelivered</t>
+  </si>
+  <si>
+    <t>Keyed+CourierArrivalMessage</t>
+  </si>
+  <si>
+    <t>CourierArrivalMessage</t>
+  </si>
+  <si>
+    <t>Keyed+CourierArrival</t>
+  </si>
+  <si>
+    <t>CourierArrival</t>
+  </si>
+  <si>
+    <t>Keyed+CourierDeniedMessage</t>
+  </si>
+  <si>
+    <t>CourierDeniedMessage</t>
+  </si>
+  <si>
+    <t>Keyed+CourierDenied</t>
+  </si>
+  <si>
+    <t>CourierDenied</t>
+  </si>
+  <si>
+    <t>Keyed+MultipleNoticeBoards</t>
+  </si>
+  <si>
+    <t>MultipleNoticeBoards</t>
+  </si>
+  <si>
+    <t>공지 게시판은 하나만 만들 수 있습니다!</t>
+  </si>
+  <si>
+    <t>ThoughtDef+LTS_RoomRequirement.stages.0.description</t>
+  </si>
+  <si>
+    <t>LTS_RoomRequirement.stages.0.description</t>
+  </si>
+  <si>
+    <t>나는 개인 침실 비용을 지불하고 있어요!</t>
+  </si>
+  <si>
+    <t>ThoughtDef+LTS_RoomRequirement.stages.0.label</t>
+  </si>
+  <si>
+    <t>LTS_RoomRequirement.stages.0.label</t>
+  </si>
+  <si>
+    <t>개인 침실이 없습니다.</t>
+  </si>
+  <si>
+    <t>ThingDef+LTS_ThrowingKnife.verbs.0.label</t>
+  </si>
+  <si>
+    <t>LTS_ThrowingKnife.verbs.0.label</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+Tenancy.questContentRules.rulesStrings.5</t>
+  </si>
+  <si>
+    <t>Tenancy.questContentRules.rulesStrings.5</t>
+  </si>
+  <si>
+    <t>questDescriptionRoomRequired(singleRoomRequired==false)-&gt;특별한 요구 사항이 없습니다.</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+Tenancy.questContentRules.rulesStrings.4</t>
+  </si>
+  <si>
+    <t>Tenancy.questContentRules.rulesStrings.4</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+Tenancy.questContentRules.rulesStrings.3</t>
+  </si>
+  <si>
+    <t>Tenancy.questContentRules.rulesStrings.3</t>
+  </si>
+  <si>
+    <t>questDescriptionRejected(tenancyRejected==false)-&gt;</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+Tenancy.questContentRules.rulesStrings.2</t>
+  </si>
+  <si>
+    <t>Tenancy.questContentRules.rulesStrings.2</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+Tenancy.questContentRules.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>Tenancy.questContentRules.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>questDescriptionAfterAccepted-&gt;[questDescriptionRejected][tenant_nameDef](은)는 이제 당신 정착지의 세입자 입니다. \n\n[tenant_pronoun]는 매 [days]일 간 [rent]은화씩, 총 [rentSum]은화를 지불할 것입니다.게시판이 있을 경우, 배달부가 가끔씩 누적된 임대료를 게시판으로 가져다 줍니다. \n\n[questDescriptionRoomRequired]</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+Tenancy.questContentRules.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>Tenancy.questContentRules.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>questDescriptionBeforeAccepted-&gt;[questDescriptionRejected] [tenant_age]살의 [tenantRace] [tenantGenes] [tenantGender]인 [tenant_nameDef](이)가 근처에 도착했습니다. \n[tenant_pronoun]는 숙소를 빌리고 싶어하며, 매 [days]일 간 [rent]은화씩, 총 [rentSum]은화를 지불하고자 합니다. \n\n[tenant_nameDef](은)는 어떤 일도 할 수 없습니다! 하지만 필요한 경우 [tenant_pronoun]를 소집해서 싸울 수 있습니다. \n불행한 세입자을 계속 방치하면 평판이 나빠집니다. \n\n[questDescriptionRoomRequired]</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+Tenancy.questDescriptionRules.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>Tenancy.questDescriptionRules.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+Tenancy.questNameRules.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>Tenancy.questNameRules.rulesStrings.1</t>
+  </si>
+  <si>
+    <t>questName-&gt;휴가 중인 [tenant_nameDef]</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+Tenancy.questNameRules.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>Tenancy.questNameRules.rulesStrings.0</t>
+  </si>
+  <si>
+    <t>questName-&gt;[tenant_nameDef]의 임차</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantRanWild.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.tenantRanWild.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantRanWild.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.tenantRanWild.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantLeftMap.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.tenantLeftMap.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantLeftMap.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.tenantLeftMap.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantSurgeryViolation.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.tenantSurgeryViolation.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantSurgeryViolation.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.tenantSurgeryViolation.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantArrested.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.tenantArrested.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantArrested.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.tenantArrested.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantDestroyed.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.tenantDestroyed.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantDestroyed.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.tenantDestroyed.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.PawnsArrive.customLetterText.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.PawnsArrive.customLetterLabel.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.TenancyMood.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.TenancyMood.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.TenancyMood.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.TenancyMood.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.root.nodes.IsNull.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>계약 가능한 세입자을 찾을 수 없습니다.</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.root.nodes.IsNull.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancyTimer.root.nodes.Delay.node.nodes.Letter.text.slateRef</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancyTimer.root.nodes.Delay.node.nodes.Letter.label.slateRef</t>
+  </si>
+  <si>
+    <t>questDescriptionAfterAccepted-&gt;[questDescriptionRejected][tenantPawn_nameDef] is a tenant of your colony. \n\n[tenantPawn_pronoun] pays [rent] silver per day every [days] days for a total of [rentSum]. Couriers will occassionaly bring the accumulated rent to your noticeboard if you have one.</t>
+  </si>
+  <si>
+    <t>TenancySetup.TenantArrivedLabel.slateRef</t>
+  </si>
+  <si>
+    <t>Tenant arrived</t>
+  </si>
+  <si>
+    <t>QuestScriptDef+TenancySetup.TenantArrivedText.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.TenantArrivedText.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.TenantLabelUnhappy.slateRef</t>
+  </si>
+  <si>
+    <t>TenancySetup.TenantTextUnhappy.slateRef</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.0.node.nodes.0.label</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.0.node.nodes.0.text</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.1.node.nodes.0.label</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.1.node.nodes.0.text</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.2.node.nodes.0.label</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.2.node.nodes.0.text</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.3.node.nodes.0.label</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.3.node.nodes.0.text</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.4.node.nodes.0.label</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.4.node.nodes.0.text</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.6.node.nodes.0.label</t>
+  </si>
+  <si>
+    <t>TenancyEnds.root.nodes.6.node.nodes.0.text</t>
+  </si>
+  <si>
+    <t>A contracted tenant named [tenantPawn_nameDef] arrived.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>임대 계약을 한 [tenantPawn_nameDef](이)가 도착했습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[tenantPawn_nameDef] unhappy!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[tenantPawn_nameDef](이)가 불행합니다!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[tenantPawn_nameDef] seem to think you are a terrible host thus decided to leave without paying.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[tenantPawn_nameDef](은)는 집주인이 끔찍하다고 생각해서 돈을 지불하지 않고 떠나기로 결정했습니다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LTSAdvertisementMayJoinGizmoDesc</t>
+  </si>
+  <si>
+    <t>Whether they can ask to join your faction(✓) or not(X).</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>머스킷 은 탄환\n            기본 피해량: 16\n            저지력: 1\n            방어구 관통력: 0.3\n            속도: 80</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTS_PressurizedProjectile.description</t>
-  </si>
-  <si>
-    <t>A small ball projectile
-            Base damage: 15
-            Stopping power: 1
-            Armor Penetration: 0.2
-            Speed: 100</t>
-  </si>
-  <si>
-    <t>작은 탄환\n            기본 피해량: 15\n            저지력: 1\n            방어구 관통력: 0.2\n            속도: 100</t>
-  </si>
-  <si>
-    <t>ThingDef+LTS_ThrowingKnifeProjectile.description</t>
-  </si>
-  <si>
-    <t>LTS_ThrowingKnifeProjectile.description</t>
-  </si>
-  <si>
-    <t>칼\n            기본 피해량: 12\n            방어구 관통력: 0.25\n            속도: 60</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>A knife
-            Base damage: 12
-            Armor Penetration: 0.25
-            Speed: 60</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>ThingDef+LTS_ThrowingKnife.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>LTS_ThrowingKnife.verbs.Verb_Shoot.label</t>
-  </si>
-  <si>
-    <t>throw knife</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierDenied</t>
-  </si>
-  <si>
-    <t>Keyed</t>
-  </si>
-  <si>
-    <t>LTSCourierDenied</t>
-  </si>
-  <si>
-    <t>No courier!</t>
-  </si>
-  <si>
-    <t>배달부 없음!</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierDeniedMessage</t>
-  </si>
-  <si>
-    <t>LTSCourierDeniedMessage</t>
-  </si>
-  <si>
-    <t>You have been denied a courier due to previous unfortunate incidents.</t>
-  </si>
-  <si>
-    <t>이전에 발생한 불행한 사건으로 인해 배달부가 배달을 거부했습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierArrival</t>
-  </si>
-  <si>
-    <t>LTSCourierArrival</t>
-  </si>
-  <si>
-    <t>Courier</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierArrivalMessage</t>
-  </si>
-  <si>
-    <t>LTSCourierArrivalMessage</t>
-  </si>
-  <si>
-    <t>A courier named {PAWN_nameDef} has arrived. {PAWN_pronoun} will deliver rent and perhaps other things too! Do try to keep {PAWN_objective} alive.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(이)라는 배달부가 도착했습니다. {PAWN_pronoun}는 집세 및 기타 다른 것들을 배달해 줍니다! {PAWN_objective} 살리도록 노력하세요.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierDelivered</t>
-  </si>
-  <si>
-    <t>LTSCourierDelivered</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} has concluded {PAWN_possessive} delivery and will soon leave.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}은(는) {PAWN_possessive} 배달을 완료했습니다. 곧 떠날 예정입니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierDeliveredRent</t>
-  </si>
-  <si>
-    <t>LTSCourierDeliveredRent</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} delivered a grand total of {0} silver from tenants.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}이(가) 세입자들로부터 받은 임대료 총 {0}은화를 배달 해주었습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierDeliveredRentGold</t>
-  </si>
-  <si>
-    <t>LTSCourierDeliveredRentGold</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} delivered a grand total of {0} silver and {1} gold from tenants.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}이(가) 세입자들로부터 받은 임대료 총 {0}은화와 {1}금화를 배달 해주었습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierDeliveredGift</t>
-  </si>
-  <si>
-    <t>LTSCourierDeliveredGift</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} delivered a gift from a previous happy tenant! How nice!</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}이(가) 행복했었던 이전 세입자로부터 받은 선물을 배달 해주었습니다! 정말 멋지네요!</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierDeliveredTech</t>
-  </si>
-  <si>
-    <t>LTSCourierDeliveredTech</t>
-  </si>
-  <si>
-    <t>The Courier Association is pleased with your work and decided to gift you a hint of their technology.</t>
-  </si>
-  <si>
-    <t>배달부 협회는 귀하의 노고에 만족하여 기술에 대한 힌트를 선물하기로 결정했습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierTenancyNotice</t>
-  </si>
-  <si>
-    <t>LTSCourierTenancyNotice</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} noticed your note for tenancy and posted a possible applicant.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(이)가임대에 대한 귀하의 공지를 발견하고 가능한 지원자를 게시했습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierTenancyNoticeFailFunds</t>
-  </si>
-  <si>
-    <t>LTSCourierTenancyNoticeFailFunds</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} noticed some issue with your advertisement and leaves it as is urging you to correct this issue.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}(이)가 귀하의 광고에서 일부 문제를 발견하여 이 문제를 수정할 것을 촉구하며 그대로 남겨 둡니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSLoneCourierDied</t>
-  </si>
-  <si>
-    <t>LTSLoneCourierDied</t>
-  </si>
-  <si>
-    <t>A courier {PAWN_nameDef} died while in the area. You are blamed for this incident.</t>
-  </si>
-  <si>
-    <t>배달원 {PAWN_nameDef}(이)가 이 지역에 있는 동안 사망했습니다. 이 사건에 대한 책임은 귀하에게 있습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementPlaced</t>
-  </si>
-  <si>
-    <t>LTSAdvertisementPlaced</t>
-  </si>
-  <si>
-    <t>Advertisement is put up, now to wait for a courier to pick it up.</t>
-  </si>
-  <si>
-    <t>광고가 게시되었으니 이제 배달부가 찾아올 때까지 기다려야 합니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementFailed</t>
-  </si>
-  <si>
-    <t>LTSAdvertisementFailed</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} somehow failed {PAWN_possessive} task of placing an advertisement. not enough silver.</t>
-  </si>
-  <si>
-    <t>은화가 부족합니다. {PAWN_nameDef}은(는) 광고 게시를 실패했습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementGizmo</t>
-  </si>
-  <si>
-    <t>LTSAdvertisementGizmo</t>
-  </si>
-  <si>
-    <t>Place Advert</t>
-  </si>
-  <si>
-    <t>광고 게시</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementGizmoDesc</t>
-  </si>
-  <si>
-    <t>LTSAdvertisementGizmoDesc</t>
-  </si>
-  <si>
-    <t>If toggled on, a pawn will make sure you have an advert up at all times as long as you can afford it.</t>
-  </si>
-  <si>
-    <t>이 기능을 켜면 광고비를 지불할 수 있는 한 폰이 항상 광고를 게시합니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementFemaleGizmo</t>
-  </si>
-  <si>
-    <t>LTSAdvertisementFemaleGizmo</t>
-  </si>
-  <si>
-    <t>Female applicants</t>
-  </si>
-  <si>
-    <t>여성 지원자</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementMaleGizmo</t>
-  </si>
-  <si>
-    <t>LTSAdvertisementMaleGizmo</t>
-  </si>
-  <si>
-    <t>Male applicants</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementGenderGizmo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>남성 지원자</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTSAdvertisementGenderGizmo</t>
-  </si>
-  <si>
-    <t>Any Gender</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementAgeGizmo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>아무 성별</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTSAdvertisementAgeGizmo</t>
-  </si>
-  <si>
-    <t>Max age: {0}</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementAnyAgeGizmo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>최대 나이: {0}</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTSAdvertisementAnyAgeGizmo</t>
-  </si>
-  <si>
-    <t>Any Age</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementSingleRoomGizmo</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>아무 나이</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTSAdvertisementSingleRoomGizmo</t>
-  </si>
-  <si>
-    <t>Single room</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementSingleRoomGizmoDesc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>개인 방</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTSAdvertisementSingleRoomGizmoDesc</t>
-  </si>
-  <si>
-    <t>A pawn will require a single room but pays extra for it. Failure to provide a single room will cause frustration for the tenant.</t>
-  </si>
-  <si>
-    <t>폰은 개인 침실이 필요하지만 추가 비용을 지불해야 합니다. 싱개인 침실을 제공하지 않으면 임차인이 불편을 겪을 수 있습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementFightableGizmo</t>
-  </si>
-  <si>
-    <t>LTSAdvertisementFightableGizmo</t>
-  </si>
-  <si>
-    <t>Fighter</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementFightableGizmoDesc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>싸움</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTSAdvertisementFightableGizmoDesc</t>
-  </si>
-  <si>
-    <t>Whether they can fight(✓) or not(X). Does not take account for pawn traits or other means of disabling violence.</t>
-  </si>
-  <si>
-    <t>전투 가능 여부(✓) 또는 불가능 여부(X). 폰 특성이나 기타 폭력성을 비활성화하는 수단은 고려하지 않습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementXenosAnyGizmo</t>
-  </si>
-  <si>
-    <t>LTSAdvertisementXenosAnyGizmo</t>
-  </si>
-  <si>
-    <t>Any Xeno</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementCost</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>아무 이종형</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTSAdvertisementCost</t>
-  </si>
-  <si>
-    <t>Advertisement cost:</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementCostDesc</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>광고 비용:</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTSAdvertisementCostDesc</t>
-  </si>
-  <si>
-    <t>How much silver it costs to put up an advert for tenancy which forces the event upon courier retrieval.</t>
-  </si>
-  <si>
-    <t>배달부가 가져갈 임대차 광고를 게시하는 데 드는 비용입니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSExpectedRent</t>
-  </si>
-  <si>
-    <t>LTSExpectedRent</t>
-  </si>
-  <si>
-    <t>New applicants daily rent of: {0} silver</t>
-  </si>
-  <si>
-    <t>신규 신청자 일일 임대료: {0} 은</t>
-  </si>
-  <si>
-    <t>Keyed+LTSContractText</t>
-  </si>
-  <si>
-    <t>LTSContractText</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} would love to prolong {PAWN_possessive} stay. Would you accept the same contract of {0} silver per day for {1} days?</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}은(는) {PAWN_possessive}의 숙박을 연장하고 싶어 합니다. 매 {1}일간 {0}은화씩 동일한 계약으로 연장하겠습니까?</t>
-  </si>
-  <si>
-    <t>Keyed+LTSContractJoin</t>
-  </si>
-  <si>
-    <t>LTSContractJoin</t>
-  </si>
-  <si>
-    <t>Keyed+LTSContractJoinReject</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">{PAWN_nameDef} seems to love {PAWN_possessive} stay and wishes to become a full fledged member of your colony. Do you accept? \n\nReject now and {PAWN_pronoun} wont ask again! (At least, until next reload.) \n\n{PAWN_gender} {PAWN_race}, age {PAWN_ageFull}  </t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-      </rPr>
-      <t>{PAWN_nameDef}은(는) 이곳에서 머무는걸 좋아해서 정착지의 정식 구성원이 되고 싶어합니다. 수락하시겠습니까? \n\n거부하면 {PAWN_pronoun}는 다시 묻지 않을 것입니다!\n\n{PAWN_gender} {PAWN_race}, {PAWN_ageFull}살</t>
-    </r>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>LTSContractJoinReject</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} is saddened but does not pry further.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}은(는) 슬퍼하지만 더 이상 묻지 않습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSContractJoinAccept</t>
-  </si>
-  <si>
-    <t>LTSContractJoinAccept</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef} is very happy and vows that {PAWN_pronoun} will not make you regret your decision.</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}은(는) 매우 기쁘게 생각하며 {PAWN_pronoun}가 당신의 결정을 후회하게 만들지 않겠다고 맹세합니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSContractTitle</t>
-  </si>
-  <si>
-    <t>LTSContractTitle</t>
-  </si>
-  <si>
-    <t>Tenancy</t>
-  </si>
-  <si>
-    <t>임대차 계약</t>
-  </si>
-  <si>
-    <t>Keyed+LTSContractAgree</t>
-  </si>
-  <si>
-    <t>LTSContractAgree</t>
-  </si>
-  <si>
-    <t>Accept tenant</t>
-  </si>
-  <si>
-    <t>임대 수락</t>
-  </si>
-  <si>
-    <t>Keyed+LTSContractReject</t>
-  </si>
-  <si>
-    <t>LTSContractReject</t>
-  </si>
-  <si>
-    <t>Reject tenant</t>
-  </si>
-  <si>
-    <t>임대 거절</t>
-  </si>
-  <si>
-    <t>Keyed+LTSContractPostpone</t>
-  </si>
-  <si>
-    <t>LTSContractPostpone</t>
-  </si>
-  <si>
-    <t>Ask me later</t>
-  </si>
-  <si>
-    <t>나중에 다시 확인</t>
-  </si>
-  <si>
-    <t>Keyed+LTSMoodBelowThreshold</t>
-  </si>
-  <si>
-    <t>LTSMoodBelowThreshold</t>
-  </si>
-  <si>
-    <t>Tenants unhappy</t>
-  </si>
-  <si>
-    <t>세입자가 불행합니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSMoodBelowThresholdDesc</t>
-  </si>
-  <si>
-    <t>LTSMoodBelowThresholdDesc</t>
-  </si>
-  <si>
-    <t>Your tenant {PAWN_nameDef} is unhappy. Try to make {PAWN_objective} feel better or {PAWN_pronoun}'ll leave.</t>
-  </si>
-  <si>
-    <t>당신의 세입자인 {PAWN_nameDef}이(가) 불행합니다. {PAWN_pronoun}의 기분을 좋게 만들지 않으면 {PAWN_pronoun}는 떠날 것입니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSTenantPassionMinor</t>
-  </si>
-  <si>
-    <t>LTSTenantPassionMinor</t>
-  </si>
-  <si>
-    <t>Is interested in</t>
-  </si>
-  <si>
-    <t>는 관심있는</t>
-  </si>
-  <si>
-    <t>Keyed+LTSTenantPassionMajor</t>
-  </si>
-  <si>
-    <t>LTSTenantPassionMajor</t>
-  </si>
-  <si>
-    <t>Loves</t>
-  </si>
-  <si>
-    <t>좋아하는</t>
-  </si>
-  <si>
-    <t>Keyed+LTSTenancyRoomRequired</t>
-  </si>
-  <si>
-    <t>LTSTenancyRoomRequired</t>
-  </si>
-  <si>
-    <t>Rooms</t>
-  </si>
-  <si>
-    <t>방</t>
-  </si>
-  <si>
-    <t>Keyed+LTSTenancyRoomRequiredDesc</t>
-  </si>
-  <si>
-    <t>LTSTenancyRoomRequiredDesc</t>
-  </si>
-  <si>
-    <t>A tenant pays for a single room but does not have one! You might earn their ire should this not be fixed soon.</t>
-  </si>
-  <si>
-    <t>세입자가 개인 침실 요금을 지불했는데 방이 없습니다! 이 문제를 빨리 해결하지 않으면 세입자의 분노를 살 수 있습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSLoneTenantDied</t>
-  </si>
-  <si>
-    <t>LTSLoneTenantDied</t>
-  </si>
-  <si>
-    <t>The tenant {PAWN_nameDef} died while leaving the area. You are blamed for this incident.</t>
-  </si>
-  <si>
-    <t>세입자 {PAWN_nameDef}(이)가 이 지역을 떠나던 중 사망했습니다. 이 사건에 대한 책임은 귀하에게 있습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierDaysSpawn</t>
-  </si>
-  <si>
-    <t>LTSCourierDaysSpawn</t>
-  </si>
-  <si>
-    <t>Forced courier event: {0}-{1} days</t>
-  </si>
-  <si>
-    <t>강제 배달부 이벤트 사이 딜레이 : {0} - {1}일</t>
-  </si>
-  <si>
-    <t>Keyed+LTSCourierDaysSpawnDesc</t>
-  </si>
-  <si>
-    <t>LTSCourierDaysSpawnDesc</t>
-  </si>
-  <si>
-    <t>The minimum time between courier events. Note: You still require a noticeboard.</t>
-  </si>
-  <si>
-    <t>배달부 이벤트 사이의 최소 시간은 이 두 값 사이에서 무작위로 정해집니다. 여전히 게시판은 필요합니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSTenancyDaysContract</t>
-  </si>
-  <si>
-    <t>LTSTenancyDaysContract</t>
-  </si>
-  <si>
-    <t>Tenancy contract: {0}-{1} days</t>
-  </si>
-  <si>
-    <t>임대 계약 기간 : {0} - {1}일</t>
-  </si>
-  <si>
-    <t>Keyed+LTSTenancyRentContract</t>
-  </si>
-  <si>
-    <t>LTSTenancyRentContract</t>
-  </si>
-  <si>
-    <t>Daily rent of:</t>
-  </si>
-  <si>
-    <t>일일 임대료:</t>
-  </si>
-  <si>
-    <t>Keyed+LTSTenancyRentContractDesc</t>
-  </si>
-  <si>
-    <t>LTSTenancyRentContractDesc</t>
-  </si>
-  <si>
-    <t>How much silver is paid per contract day.</t>
-  </si>
-  <si>
-    <t>계약일당 지급되는 은의 양입니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSMoodTicks</t>
-  </si>
-  <si>
-    <t>LTSMoodTicks</t>
-  </si>
-  <si>
-    <t>Mood ticks:</t>
-  </si>
-  <si>
-    <t>무드 틱: {0}</t>
-  </si>
-  <si>
-    <t>Keyed+LTSMoodTicksDesc</t>
-  </si>
-  <si>
-    <t>LTSMoodTicksDesc</t>
-  </si>
-  <si>
-    <t>Amount of required ticks to trigger a mood related event for tenants.</t>
-  </si>
-  <si>
-    <t>세입자에게 기분 관련 이벤트를 트리거하는 데 필요한 틱 수입니다.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSKillPenalty</t>
-  </si>
-  <si>
-    <t>LTSKillPenalty</t>
-  </si>
-  <si>
-    <t>Kill penalty</t>
-  </si>
-  <si>
-    <t>살해 페널티</t>
-  </si>
-  <si>
-    <t>Keyed+LTSKillPenaltyDesc</t>
-  </si>
-  <si>
-    <t>LTSKillPenaltyDesc</t>
-  </si>
-  <si>
-    <t>Whether killing tenants and couriers have other consequenses.</t>
-  </si>
-  <si>
-    <t>세입자와 배달원을 살해하면 다른 결과가 발생하는지 여부</t>
-  </si>
-  <si>
-    <t>Keyed+LTSGoldPayment</t>
-  </si>
-  <si>
-    <t>LTSGoldPayment</t>
-  </si>
-  <si>
-    <t>Partial payment in gold?</t>
-  </si>
-  <si>
-    <t>금으로 부분 결제 하는 걸 허용 할까요?</t>
-  </si>
-  <si>
-    <t>Keyed+LTSGoldPaymentDesc</t>
-  </si>
-  <si>
-    <t>LTSGoldPaymentDesc</t>
-  </si>
-  <si>
-    <t>Couriers deliver mix of silver and gold upon delivery if accumulated rent is over 500 silver. A random amount up to 20% can be converted to gold. Conversion rate: 1 gold = 10 silver.</t>
-  </si>
-  <si>
-    <t>누적 임대료가 500실버를 초과하는 경우 배달부는 배송 시 은과 금을 혼합하여 배달합니다. 최대 20%까지 무작위 금액을 골드로 전환합니다. 전환율: 1금 = 10은.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertNoticeSound</t>
-  </si>
-  <si>
-    <t>LTSAdvertNoticeSound</t>
-  </si>
-  <si>
-    <t>Advert message</t>
-  </si>
-  <si>
-    <t>광고 메세지</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertNoticeSoundDesc</t>
-  </si>
-  <si>
-    <t>LTSAdvertNoticeSoundDesc</t>
-  </si>
-  <si>
-    <t>Whether a beep and a message should be played whenever a pawn set ups a notice or any other tenancy related events.</t>
-  </si>
-  <si>
-    <t>폰이 공지나 기타 임대 관련 이벤트를 설정할 때마다 신호음과 메시지를 재생할지 여부를 설정합니다.</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.PawnsArrive.customLetterLabel.slateRef</t>
-  </si>
-  <si>
-    <t>TenancySetup.root.nodes.IsTrue.elseNode.nodes.PawnsArrive.customLetterLabel.slateRef</t>
-  </si>
-  <si>
-    <t>세입자 도착</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.PawnsArrive.customLetterText.slateRef</t>
-  </si>
-  <si>
-    <t>TenancySetup.root.nodes.IsTrue.elseNode.nodes.PawnsArrive.customLetterText.slateRef</t>
-  </si>
-  <si>
-    <t>임대 계약을 한 [tenant_nameDef](이)가 도착했습니다.</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>TenancySetup.root.nodes.IsTrue.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>TenancySetup.root.nodes.IsTrue.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>Keyed+AdvertNoticeSoundDesc</t>
-  </si>
-  <si>
-    <t>AdvertNoticeSoundDesc</t>
-  </si>
-  <si>
-    <t>폰의 알림이 있을 때마다 신호음과 메시지를 재생할지 여부를 설정합니다.</t>
-  </si>
-  <si>
-    <t>Keyed+AdvertNoticeSound</t>
-  </si>
-  <si>
-    <t>AdvertNoticeSound</t>
-  </si>
-  <si>
-    <t>Keyed+TenantsStoredDesc</t>
-  </si>
-  <si>
-    <t>TenantsStoredDesc</t>
-  </si>
-  <si>
-    <t>세입자 관련 퀘스트에 사용하기 위해 백그라운드에 저장되는 세입자의 양입니다. 숫자가 높을수록 성능에 영향을 줍니다. 참고: 현재 계약된 세입자는 계산되지 않으며 죽은 세입자는 정리됩니다.</t>
-  </si>
-  <si>
-    <t>Keyed+TenantsStored</t>
-  </si>
-  <si>
-    <t>TenantsStored</t>
-  </si>
-  <si>
-    <t>저장된 월드 세입자: {0}.</t>
-  </si>
-  <si>
-    <t>Keyed+GoldPaymentDesc</t>
-  </si>
-  <si>
-    <t>GoldPaymentDesc</t>
-  </si>
-  <si>
-    <t>배달부가 임대료를 배달할 때 은과 금을 섞어서 배달합니다(0~20%). 1금 = 10은화</t>
-  </si>
-  <si>
-    <t>Keyed+GoldPayment</t>
-  </si>
-  <si>
-    <t>GoldPayment</t>
-  </si>
-  <si>
-    <t>Keyed+KillPenaltyDesc</t>
-  </si>
-  <si>
-    <t>KillPenaltyDesc</t>
-  </si>
-  <si>
-    <t>Keyed+KillPenalty</t>
-  </si>
-  <si>
-    <t>KillPenalty</t>
-  </si>
-  <si>
-    <t>Keyed+TenancyRentContract</t>
-  </si>
-  <si>
-    <t>TenancyRentContract</t>
-  </si>
-  <si>
-    <t>기본 일일 임대료 : {0}은화</t>
-  </si>
-  <si>
-    <t>Keyed+TenancyDaysContract</t>
-  </si>
-  <si>
-    <t>TenancyDaysContract</t>
-  </si>
-  <si>
-    <t>Keyed+AdvertisementCostDesc</t>
-  </si>
-  <si>
-    <t>AdvertisementCostDesc</t>
-  </si>
-  <si>
-    <t>Keyed+AdvertisementCost</t>
-  </si>
-  <si>
-    <t>AdvertisementCost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">광고 비용: {0} </t>
-  </si>
-  <si>
-    <t>Keyed+MoodTicksDesc</t>
-  </si>
-  <si>
-    <t>MoodTicksDesc</t>
-  </si>
-  <si>
-    <t>세입자 무드 이벤트가 시작될 때까지의 틱 수입니다.</t>
-  </si>
-  <si>
-    <t>Keyed+MoodTicks</t>
-  </si>
-  <si>
-    <t>MoodTicks</t>
-  </si>
-  <si>
-    <t>Keyed+DefaultSettings</t>
-  </si>
-  <si>
-    <t>DefaultSettings</t>
-  </si>
-  <si>
-    <t>기본 설정</t>
-  </si>
-  <si>
-    <t>Keyed+CourierDaysSpawnDesc</t>
-  </si>
-  <si>
-    <t>CourierDaysSpawnDesc</t>
-  </si>
-  <si>
-    <t>Keyed+CourierDaysSpawn</t>
-  </si>
-  <si>
-    <t>CourierDaysSpawn</t>
-  </si>
-  <si>
-    <t>Keyed+Filter</t>
-  </si>
-  <si>
-    <t>Filter</t>
-  </si>
-  <si>
-    <t>종족 필터:</t>
-  </si>
-  <si>
-    <t>Keyed+Races</t>
-  </si>
-  <si>
-    <t>Races</t>
-  </si>
-  <si>
-    <t>허가된 세입자 종족</t>
-  </si>
-  <si>
-    <t>Keyed+TenancyRoomRequiredDesc</t>
-  </si>
-  <si>
-    <t>TenancyRoomRequiredDesc</t>
-  </si>
-  <si>
-    <t>Keyed+TenancyRoomRequired</t>
-  </si>
-  <si>
-    <t>TenancyRoomRequired</t>
-  </si>
-  <si>
-    <t>Keyed+TenantPassionMajor</t>
-  </si>
-  <si>
-    <t>TenantPassionMajor</t>
-  </si>
-  <si>
-    <t>Keyed+TenantPassionMinor</t>
-  </si>
-  <si>
-    <t>TenantPassionMinor</t>
-  </si>
-  <si>
-    <t>Keyed+MoodBelowThresholdDesc</t>
-  </si>
-  <si>
-    <t>MoodBelowThresholdDesc</t>
-  </si>
-  <si>
-    <t>Keyed+MoodBelowThreshold</t>
-  </si>
-  <si>
-    <t>MoodBelowThreshold</t>
-  </si>
-  <si>
-    <t>Keyed+ContractPostpone</t>
-  </si>
-  <si>
-    <t>ContractPostpone</t>
-  </si>
-  <si>
-    <t>Keyed+ContractReject</t>
-  </si>
-  <si>
-    <t>ContractReject</t>
-  </si>
-  <si>
-    <t>Keyed+ContractAgree</t>
-  </si>
-  <si>
-    <t>ContractAgree</t>
-  </si>
-  <si>
-    <t>Keyed+ContractTitle</t>
-  </si>
-  <si>
-    <t>ContractTitle</t>
-  </si>
-  <si>
-    <t>Keyed+ContractJoinAccept</t>
-  </si>
-  <si>
-    <t>ContractJoinAccept</t>
-  </si>
-  <si>
-    <t>Keyed+ContractJoinReject</t>
-  </si>
-  <si>
-    <t>ContractJoinReject</t>
-  </si>
-  <si>
-    <t>Keyed+ContractJoin</t>
-  </si>
-  <si>
-    <t>ContractJoin</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}은(는) 이곳에서 머무는걸 좋아해서 정착지의 정식 구성원이 되고 싶어합니다. 수락하시겠습니까? \n\n거부하면 {PAWN_pronoun}는 다시 묻지 않을 것입니다!</t>
-  </si>
-  <si>
-    <t>Keyed+ContractText</t>
-  </si>
-  <si>
-    <t>ContractText</t>
-  </si>
-  <si>
-    <t>Keyed+TenancyDeniedMessage</t>
-  </si>
-  <si>
-    <t>TenancyDeniedMessage</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}은(는) 당신이 지난 세입자들에게 한 일 때문에 당신의 정착지에서 살지 않기로 했습니다.</t>
-  </si>
-  <si>
-    <t>Keyed+TenancyDenied</t>
-  </si>
-  <si>
-    <t>TenancyDenied</t>
-  </si>
-  <si>
-    <t>세입자 없음!</t>
-  </si>
-  <si>
-    <t>Keyed+AdvertisementGizmoDesc</t>
-  </si>
-  <si>
-    <t>AdvertisementGizmoDesc</t>
-  </si>
-  <si>
-    <t>Keyed+AdvertisementGizmo</t>
-  </si>
-  <si>
-    <t>AdvertisementGizmo</t>
-  </si>
-  <si>
-    <t>Keyed+AdvertisementFailed</t>
-  </si>
-  <si>
-    <t>AdvertisementFailed</t>
-  </si>
-  <si>
-    <t>Keyed+AdvertisementPlaced</t>
-  </si>
-  <si>
-    <t>AdvertisementPlaced</t>
-  </si>
-  <si>
-    <t>Keyed+AddNoticeForTenancy</t>
-  </si>
-  <si>
-    <t>AddNoticeForTenancy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">임대에 대한 공지 추가: 가격 - {0}은화 </t>
-  </si>
-  <si>
-    <t>Keyed+CourierTenancyNoticeFail</t>
-  </si>
-  <si>
-    <t>CourierTenancyNoticeFail</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}이(가) 임대에 관한 당신의 광고를 봤지만 이전 광고를 아직 돌리는 중입니다. {PAWN_pronoun}는 일단 광고를 그대로 두기로 합니다.</t>
-  </si>
-  <si>
-    <t>Keyed+CourierTenancyNotice</t>
-  </si>
-  <si>
-    <t>CourierTenancyNotice</t>
-  </si>
-  <si>
-    <t>{PAWN_nameDef}이(가) 임대에 대한 당신의 광고를 봤습니다.{PAWN_nameDef}은(는) 관심있는 세입자를 데리고 올 것입니다. 그렇지만 모든 사람이 방문한다는 보장은 없습니다...</t>
-  </si>
-  <si>
-    <t>Keyed+CourierDeliveredTech</t>
-  </si>
-  <si>
-    <t>CourierDeliveredTech</t>
-  </si>
-  <si>
-    <t>Keyed+CourierDeliveredGift</t>
-  </si>
-  <si>
-    <t>CourierDeliveredGift</t>
-  </si>
-  <si>
-    <t>Keyed+CourierDeliveredRentGold</t>
-  </si>
-  <si>
-    <t>CourierDeliveredRentGold</t>
-  </si>
-  <si>
-    <t>Keyed+CourierDeliveredRent</t>
-  </si>
-  <si>
-    <t>CourierDeliveredRent</t>
-  </si>
-  <si>
-    <t>Keyed+CourierDelivered</t>
-  </si>
-  <si>
-    <t>CourierDelivered</t>
-  </si>
-  <si>
-    <t>Keyed+CourierArrivalMessage</t>
-  </si>
-  <si>
-    <t>CourierArrivalMessage</t>
-  </si>
-  <si>
-    <t>Keyed+CourierArrival</t>
-  </si>
-  <si>
-    <t>CourierArrival</t>
-  </si>
-  <si>
-    <t>Keyed+CourierDeniedMessage</t>
-  </si>
-  <si>
-    <t>CourierDeniedMessage</t>
-  </si>
-  <si>
-    <t>Keyed+CourierDenied</t>
-  </si>
-  <si>
-    <t>CourierDenied</t>
-  </si>
-  <si>
-    <t>Keyed+MultipleNoticeBoards</t>
-  </si>
-  <si>
-    <t>MultipleNoticeBoards</t>
-  </si>
-  <si>
-    <t>공지 게시판은 하나만 만들 수 있습니다!</t>
-  </si>
-  <si>
-    <t>ThoughtDef+LTS_RoomRequirement.stages.0.description</t>
-  </si>
-  <si>
-    <t>LTS_RoomRequirement.stages.0.description</t>
-  </si>
-  <si>
-    <t>나는 개인 침실 비용을 지불하고 있어요!</t>
-  </si>
-  <si>
-    <t>ThoughtDef+LTS_RoomRequirement.stages.0.label</t>
-  </si>
-  <si>
-    <t>LTS_RoomRequirement.stages.0.label</t>
-  </si>
-  <si>
-    <t>개인 침실이 없습니다.</t>
-  </si>
-  <si>
-    <t>ThingDef+LTS_ThrowingKnife.verbs.0.label</t>
-  </si>
-  <si>
-    <t>LTS_ThrowingKnife.verbs.0.label</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+Tenancy.questContentRules.rulesStrings.5</t>
-  </si>
-  <si>
-    <t>Tenancy.questContentRules.rulesStrings.5</t>
-  </si>
-  <si>
-    <t>questDescriptionRoomRequired(singleRoomRequired==false)-&gt;특별한 요구 사항이 없습니다.</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+Tenancy.questContentRules.rulesStrings.4</t>
-  </si>
-  <si>
-    <t>Tenancy.questContentRules.rulesStrings.4</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+Tenancy.questContentRules.rulesStrings.3</t>
-  </si>
-  <si>
-    <t>Tenancy.questContentRules.rulesStrings.3</t>
-  </si>
-  <si>
-    <t>questDescriptionRejected(tenancyRejected==false)-&gt;</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+Tenancy.questContentRules.rulesStrings.2</t>
-  </si>
-  <si>
-    <t>Tenancy.questContentRules.rulesStrings.2</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+Tenancy.questContentRules.rulesStrings.1</t>
-  </si>
-  <si>
-    <t>Tenancy.questContentRules.rulesStrings.1</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+Tenancy.questContentRules.rulesStrings.0</t>
-  </si>
-  <si>
-    <t>Tenancy.questContentRules.rulesStrings.0</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+Tenancy.questDescriptionRules.rulesStrings.0</t>
-  </si>
-  <si>
-    <t>Tenancy.questDescriptionRules.rulesStrings.0</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+Tenancy.questNameRules.rulesStrings.1</t>
-  </si>
-  <si>
-    <t>Tenancy.questNameRules.rulesStrings.1</t>
-  </si>
-  <si>
-    <t>questName-&gt;휴가 중인 [tenant_nameDef]</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+Tenancy.questNameRules.rulesStrings.0</t>
-  </si>
-  <si>
-    <t>Tenancy.questNameRules.rulesStrings.0</t>
-  </si>
-  <si>
-    <t>questName-&gt;[tenant_nameDef]의 임차</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantRanWild.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>TenancyEnds.root.nodes.tenantRanWild.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantRanWild.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>TenancyEnds.root.nodes.tenantRanWild.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantLeftMap.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>TenancyEnds.root.nodes.tenantLeftMap.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantLeftMap.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>TenancyEnds.root.nodes.tenantLeftMap.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantSurgeryViolation.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>TenancyEnds.root.nodes.tenantSurgeryViolation.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantSurgeryViolation.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>TenancyEnds.root.nodes.tenantSurgeryViolation.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantArrested.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>TenancyEnds.root.nodes.tenantArrested.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantArrested.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>TenancyEnds.root.nodes.tenantArrested.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantDestroyed.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>TenancyEnds.root.nodes.tenantDestroyed.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancyEnds.root.nodes.tenantDestroyed.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>TenancyEnds.root.nodes.tenantDestroyed.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.PawnsArrive.customLetterText.slateRef</t>
-  </si>
-  <si>
-    <t>TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.PawnsArrive.customLetterLabel.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.TenancyMood.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.TenancyMood.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.TenancyMood.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.elseNode.nodes.TenancyMood.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>TenancySetup.root.nodes.IsNull.elseNode.nodes.IsTrue.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>TenancySetup.root.nodes.IsNull.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>계약 가능한 세입자을 찾을 수 없습니다.</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancySetup.root.nodes.IsNull.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>TenancySetup.root.nodes.IsNull.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancyTimer.root.nodes.Delay.node.nodes.Letter.text.slateRef</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+TenancyTimer.root.nodes.Delay.node.nodes.Letter.label.slateRef</t>
-  </si>
-  <si>
-    <t>questDescriptionBeforeAccepted-&gt;[questDescriptionRejected]A [tenantGender] [tenantPawn_age]-year-old [tenantGenes] named [tenantPawn_nameDef] hail from nearby. \n[tenantPawn_pronoun] wishes to rent a place to stay and is willing to pay [rent] silver per day every [days] days for a total of [rentSum]. \n\n[tenantPawn_nameDef] won't do any work! [questDescriptionViolenceEnabled] \nMistreating tenants and keeping them unhappay will make them leave and give you a bad reputation. A reputation that may have unforeseen effects... \n\n[questDescriptionRoomRequired] \n\n[questDescriptionMayJoin]</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.8</t>
-  </si>
-  <si>
-    <t>LTS_Tenancy.questContentRules.rulesStrings.8</t>
-  </si>
-  <si>
-    <t>questDescriptionViolenceEnabled(violenceEnabled==true)-&gt;However, [tenantPawn_pronoun] can be drafted and fight if necessary.</t>
-  </si>
-  <si>
-    <t>QuestScriptDef+LTS_Tenancy.questContentRules.rulesStrings.9</t>
-  </si>
-  <si>
-    <t>LTS_Tenancy.questContentRules.rulesStrings.9</t>
-  </si>
-  <si>
-    <t>questDescriptionViolenceEnabled(violenceEnabled==false)-&gt;[tenantPawn_pronoun] won't fight at all expecting you to protect [tenantPawn_objective] as well.</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementMayJoinGizmo</t>
-  </si>
-  <si>
-    <t>LTSAdvertisementMayJoinGizmo</t>
-  </si>
-  <si>
-    <t>May join</t>
-  </si>
-  <si>
-    <t>Keyed+LTSAdvertisementMayJoinGizmoDesc</t>
-  </si>
-  <si>
-    <t>LTSAdvertisementMayJoinGizmoDesc</t>
-  </si>
-  <si>
-    <t>Whether they can ask to join your faction(✓) or not(X).</t>
-  </si>
-  <si>
-    <t>questDescriptionAfterAccepted-&gt;[questDescriptionRejected][tenantPawn_nameDef] is a tenant of your colony. \n\n[tenantPawn_pronoun] pays [rent] silver per day every [days] days for a total of [rentSum]. Couriers will occassionaly bring the accumulated rent to your noticeboard if you have one. \n\n[questDescriptionRoomRequired] \n\n[questDescriptionMayJoin]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>questDescriptionAfterAccepted-&gt;[questDescriptionRejected][tenant_nameDef](은)는 이제 당신 정착지의 세입자 입니다.\n\n[tenant_pronoun]는 매 [days]일 간 [rent]은화씩, 총 [rentSum]은화를 지불할 것입니다.게시판이 있을 경우, 배달부가 가끔씩 누적된 임대료를 게시판으로 가져다 줍니다.\n\n[questDescriptionRoomRequired]\n\n[questDescriptionMayJoin]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>questDescriptionBeforeAccepted-&gt;[questDescriptionRejected] [tenant_age]살의 [tenantRace] [tenantGenes] [tenantGender]인 [tenant_nameDef](이)가 근처에 도착했습니다.\n[tenant_pronoun]는 숙소를 빌리고 싶어하며, 매 [days]일 간 [rent]은화씩, 총 [rentSum]은화를 지불하고자 합니다.\n\n[tenant_nameDef](은)는 어떤 일도 할 수 없습니다! 하지만 필요한 경우 [tenant_pronoun]를 소집해서 싸울 수 있습니다.\n불행한 세입자을 계속 방치하면 평판이 나빠집니다.\n\n[questDescriptionRoomRequired]\n\n[questDescriptionMayJoin]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>questDescriptionMayJoin(mayJoin==true)-&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>questDescriptionMayJoin(mayJoin==false)-&gt;[tenantPawn_nameDef] does not want to join your faction ever.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>questDescriptionMayJoin(mayJoin==false)-&gt;[tenantPawn_nameDef](은)는 진영에 가입하고 싶지 않습니다.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>합류 가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>진영 가입을 요청할 수 있는지(</t>
+      <t>진영 가입 요청 활성화(</t>
     </r>
     <r>
       <rPr>
@@ -4623,8 +4887,12 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>) 없는지(X) 여부.</t>
+      <t>) 비활성화(X).</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>금으로 부분 결제 허용</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -4632,7 +4900,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4663,6 +4931,12 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4718,10 +4992,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5024,10 +5298,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="F211" sqref="F211"/>
+    <sheetView tabSelected="1" topLeftCell="A173" workbookViewId="0">
+      <selection activeCell="F199" sqref="F199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7195,12 +7469,12 @@
         <v>461</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>388</v>
@@ -7212,12 +7486,12 @@
         <v>465</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>388</v>
@@ -7229,12 +7503,12 @@
         <v>469</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>388</v>
@@ -7246,12 +7520,12 @@
         <v>473</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>388</v>
@@ -7276,11 +7550,11 @@
       <c r="C133" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E133" s="5" t="s">
-        <v>948</v>
+      <c r="E133" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>963</v>
+        <v>482</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -7291,197 +7565,197 @@
         <v>388</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="E134" s="5" t="s">
-        <v>961</v>
+        <v>483</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>967</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>962</v>
+        <v>486</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F137" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E139" s="5" t="s">
-        <v>964</v>
+        <v>501</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>503</v>
       </c>
       <c r="F139" s="1" t="s">
-        <v>483</v>
+        <v>502</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E140" s="5" t="s">
-        <v>965</v>
+        <v>505</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>507</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>966</v>
+        <v>508</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>485</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>518</v>
-      </c>
-      <c r="E144" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>510</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>169</v>
@@ -7489,50 +7763,50 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>15</v>
@@ -7540,959 +7814,959 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F149" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F150" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F151" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F152" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F153" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F154" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F155" s="1" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="F156" s="1" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="F157" s="1" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="F158" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="F159" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="F160" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="F161" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="F162" s="1" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="F165" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="F166" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="F171" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="F173" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="F191" s="1" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="F193" s="1" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="F196" s="1" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>729</v>
+        <v>732</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>730</v>
+        <v>733</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>733</v>
+        <v>736</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>734</v>
+        <v>737</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>738</v>
+        <v>741</v>
       </c>
       <c r="F199" s="1" t="s">
-        <v>739</v>
+        <v>995</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
-        <v>740</v>
+        <v>743</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="F204" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>403</v>
@@ -8500,13 +8774,13 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>399</v>
@@ -8514,70 +8788,373 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
-        <v>949</v>
+        <v>765</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>950</v>
+        <v>766</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>951</v>
+        <v>767</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>502</v>
+        <v>768</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
-        <v>952</v>
+        <v>769</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>953</v>
+        <v>770</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>954</v>
+        <v>771</v>
       </c>
       <c r="F209" s="1" t="s">
-        <v>505</v>
+        <v>772</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
-        <v>955</v>
+        <v>773</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>956</v>
+        <v>774</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>957</v>
+        <v>775</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>967</v>
+        <v>777</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
-        <v>958</v>
+        <v>387</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>525</v>
+        <v>388</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>959</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>960</v>
+        <v>776</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>390</v>
       </c>
       <c r="F211" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>778</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>968</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B229" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>994</v>
       </c>
     </row>
   </sheetData>
@@ -8591,8 +9168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8626,829 +9203,829 @@
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>762</v>
+        <v>779</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>764</v>
+        <v>781</v>
       </c>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>765</v>
+        <v>782</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>766</v>
+        <v>783</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>767</v>
+        <v>784</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>768</v>
+        <v>785</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>769</v>
+        <v>786</v>
       </c>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>770</v>
+        <v>787</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>771</v>
+        <v>788</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>772</v>
+        <v>789</v>
       </c>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>773</v>
+        <v>790</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>774</v>
+        <v>791</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>775</v>
+        <v>792</v>
       </c>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>777</v>
+        <v>794</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1" t="s">
-        <v>739</v>
+        <v>742</v>
       </c>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>779</v>
+        <v>796</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>735</v>
+        <v>738</v>
       </c>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>780</v>
+        <v>797</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>781</v>
+        <v>798</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>731</v>
+        <v>734</v>
       </c>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>782</v>
+        <v>799</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>783</v>
+        <v>800</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
-        <v>784</v>
+        <v>801</v>
       </c>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>787</v>
+        <v>804</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>788</v>
+        <v>805</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>789</v>
+        <v>806</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>791</v>
+        <v>808</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>793</v>
+        <v>810</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>794</v>
+        <v>811</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>795</v>
+        <v>812</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>796</v>
+        <v>813</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>797</v>
+        <v>814</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>798</v>
+        <v>815</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1" t="s">
-        <v>799</v>
+        <v>816</v>
       </c>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>800</v>
+        <v>817</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>801</v>
+        <v>818</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>802</v>
+        <v>819</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>803</v>
+        <v>820</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>804</v>
+        <v>821</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>805</v>
+        <v>822</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1" t="s">
-        <v>806</v>
+        <v>823</v>
       </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>807</v>
+        <v>824</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>808</v>
+        <v>825</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>809</v>
+        <v>826</v>
       </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>810</v>
+        <v>827</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>811</v>
+        <v>828</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>812</v>
+        <v>829</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>813</v>
+        <v>830</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>814</v>
+        <v>831</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>815</v>
+        <v>832</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>816</v>
+        <v>833</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>817</v>
+        <v>834</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>818</v>
+        <v>835</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>819</v>
+        <v>836</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>820</v>
+        <v>837</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>821</v>
+        <v>838</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>822</v>
+        <v>839</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>823</v>
+        <v>840</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>824</v>
+        <v>841</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>825</v>
+        <v>842</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>827</v>
+        <v>844</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>828</v>
+        <v>845</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>829</v>
+        <v>846</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>830</v>
+        <v>847</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>831</v>
+        <v>848</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>832</v>
+        <v>849</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>833</v>
+        <v>850</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>834</v>
+        <v>851</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>835</v>
+        <v>852</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>837</v>
+        <v>854</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>838</v>
+        <v>855</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>839</v>
+        <v>856</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>840</v>
+        <v>857</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1" t="s">
-        <v>841</v>
+        <v>858</v>
       </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>842</v>
+        <v>859</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>843</v>
+        <v>860</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>844</v>
+        <v>861</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>845</v>
+        <v>862</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>846</v>
+        <v>863</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>847</v>
+        <v>864</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>848</v>
+        <v>865</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>849</v>
+        <v>866</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>850</v>
+        <v>867</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>851</v>
+        <v>868</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>852</v>
+        <v>869</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>853</v>
+        <v>870</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>854</v>
+        <v>871</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>855</v>
+        <v>872</v>
       </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>856</v>
+        <v>873</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>857</v>
+        <v>874</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>858</v>
+        <v>875</v>
       </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>859</v>
+        <v>876</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>860</v>
+        <v>877</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>861</v>
+        <v>878</v>
       </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>862</v>
+        <v>879</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>863</v>
+        <v>880</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>864</v>
+        <v>881</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>865</v>
+        <v>882</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>866</v>
+        <v>883</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>868</v>
+        <v>885</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>869</v>
+        <v>886</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>870</v>
+        <v>887</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>871</v>
+        <v>888</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>873</v>
+        <v>890</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>874</v>
+        <v>891</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>875</v>
+        <v>892</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
@@ -9459,98 +10036,98 @@
     </row>
     <row r="51" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>877</v>
+        <v>894</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>879</v>
+        <v>896</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>880</v>
+        <v>897</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>881</v>
+        <v>898</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>882</v>
+        <v>899</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>883</v>
+        <v>900</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>305</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>884</v>
+        <v>901</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>885</v>
+        <v>902</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>886</v>
+        <v>903</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>305</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>887</v>
+        <v>904</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>888</v>
+        <v>905</v>
       </c>
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>889</v>
+        <v>906</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>890</v>
+        <v>907</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -9561,115 +10138,115 @@
     </row>
     <row r="57" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>892</v>
+        <v>909</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>893</v>
+        <v>910</v>
       </c>
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>894</v>
+        <v>911</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>895</v>
+        <v>912</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>896</v>
+        <v>913</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>897</v>
+        <v>914</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>898</v>
+        <v>915</v>
       </c>
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>899</v>
+        <v>916</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>900</v>
+        <v>917</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>901</v>
+        <v>918</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>902</v>
+        <v>919</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>484</v>
+        <v>920</v>
       </c>
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>903</v>
+        <v>921</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>904</v>
+        <v>922</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>480</v>
+        <v>923</v>
       </c>
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>905</v>
+        <v>924</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>906</v>
+        <v>925</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -9680,47 +10257,47 @@
     </row>
     <row r="64" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>907</v>
+        <v>926</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>908</v>
+        <v>927</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>909</v>
+        <v>928</v>
       </c>
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>910</v>
+        <v>929</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>911</v>
+        <v>930</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>912</v>
+        <v>931</v>
       </c>
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>913</v>
+        <v>932</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>914</v>
+        <v>933</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -9731,13 +10308,13 @@
     </row>
     <row r="67" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>915</v>
+        <v>934</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>916</v>
+        <v>935</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -9748,13 +10325,13 @@
     </row>
     <row r="68" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>917</v>
+        <v>936</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>918</v>
+        <v>937</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -9765,13 +10342,13 @@
     </row>
     <row r="69" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>919</v>
+        <v>938</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>920</v>
+        <v>939</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -9782,13 +10359,13 @@
     </row>
     <row r="70" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>921</v>
+        <v>940</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>922</v>
+        <v>941</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -9799,13 +10376,13 @@
     </row>
     <row r="71" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>923</v>
+        <v>942</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>924</v>
+        <v>943</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -9816,13 +10393,13 @@
     </row>
     <row r="72" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>925</v>
+        <v>944</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>926</v>
+        <v>945</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -9833,13 +10410,13 @@
     </row>
     <row r="73" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>927</v>
+        <v>946</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>928</v>
+        <v>947</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -9850,13 +10427,13 @@
     </row>
     <row r="74" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>929</v>
+        <v>948</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>930</v>
+        <v>949</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -9867,13 +10444,13 @@
     </row>
     <row r="75" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>931</v>
+        <v>950</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>932</v>
+        <v>951</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -9884,47 +10461,47 @@
     </row>
     <row r="76" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>933</v>
+        <v>952</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>934</v>
+        <v>953</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="G77" s="1"/>
     </row>
     <row r="78" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>935</v>
+        <v>954</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -9935,13 +10512,13 @@
     </row>
     <row r="79" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>937</v>
+        <v>956</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>938</v>
+        <v>957</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -9952,13 +10529,13 @@
     </row>
     <row r="80" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>939</v>
+        <v>958</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -9969,13 +10546,13 @@
     </row>
     <row r="81" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>940</v>
+        <v>959</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -9986,30 +10563,30 @@
     </row>
     <row r="82" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>941</v>
+        <v>960</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>942</v>
+        <v>961</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>943</v>
+        <v>962</v>
       </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>944</v>
+        <v>963</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>945</v>
+        <v>964</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -10020,7 +10597,7 @@
     </row>
     <row r="84" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>946</v>
+        <v>965</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>388</v>
@@ -10037,7 +10614,7 @@
     </row>
     <row r="85" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>947</v>
+        <v>966</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>388</v>
@@ -10088,11 +10665,45 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
